--- a/excercises/excercises/80.Motor.xlsx
+++ b/excercises/excercises/80.Motor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A8C530-C811-417C-9828-FC8A980D95DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072B373A-8200-408C-9259-1C37AC69C5A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36390" yWindow="825" windowWidth="25125" windowHeight="19005" xr2:uid="{D87573BE-CE25-4BB0-B737-F86120CA6188}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D87573BE-CE25-4BB0-B737-F86120CA6188}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="Pnom_">Лист1!$C$10</definedName>
     <definedName name="U">Лист1!$H$5</definedName>
     <definedName name="Unom">Лист1!$C$5</definedName>
-    <definedName name="версия_">[2]Unifloc!$A$1</definedName>
+    <definedName name="версия_">[1]Unifloc!$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -316,9 +315,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,6 +340,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,64 +484,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7914255092523383</c:v>
+                  <c:v>2.0070790239876999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5828510185046767</c:v>
+                  <c:v>4.0141580479753998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.374276527757015</c:v>
+                  <c:v>6.0212370719630997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1657020370093534</c:v>
+                  <c:v>8.0283160959507995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9571275462616917</c:v>
+                  <c:v>10.035395119938499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.74855305551403</c:v>
+                  <c:v>12.042474143926199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.539978564766368</c:v>
+                  <c:v>14.049553167913899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.331404074018707</c:v>
+                  <c:v>16.056632191901599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.122829583271045</c:v>
+                  <c:v>18.063711215889299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.914255092523383</c:v>
+                  <c:v>20.070790239876999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.705680601775722</c:v>
+                  <c:v>22.077869263864699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.49710611102806</c:v>
+                  <c:v>24.084948287852399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.288531620280398</c:v>
+                  <c:v>26.092027311840098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.079957129532737</c:v>
+                  <c:v>28.099106335827798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.871382638785075</c:v>
+                  <c:v>30.106185359815498</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.662808148037414</c:v>
+                  <c:v>32.113264383803198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.454233657289752</c:v>
+                  <c:v>34.120343407790898</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.24565916654209</c:v>
+                  <c:v>36.127422431778598</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.037084675794432</c:v>
+                  <c:v>38.134501455766298</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.828510185046767</c:v>
+                  <c:v>40.141580479753998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,67 +553,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.24457966722671587</c:v>
+                  <c:v>3.9440559399999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3269495125580964</c:v>
+                  <c:v>0.13931248804209567</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40176170965864788</c:v>
+                  <c:v>0.25715911744034176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46902033304778984</c:v>
+                  <c:v>0.35903338588621025</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52766912107786623</c:v>
+                  <c:v>0.44644065192341637</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57815545355435194</c:v>
+                  <c:v>0.52083708898899994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62168925275613518</c:v>
+                  <c:v>0.58362458351440771</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65891574731462776</c:v>
+                  <c:v>0.63614563302657379</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69024098033476233</c:v>
+                  <c:v>0.67967824424900225</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.71682253904251003</c:v>
+                  <c:v>0.71543083120284834</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.73931406172386704</c:v>
+                  <c:v>0.7445371133080001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.75848553637792904</c:v>
+                  <c:v>0.76805101348415972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77445821688872019</c:v>
+                  <c:v>0.78694155625192574</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.78813890238106776</c:v>
+                  <c:v>0.80208776583387431</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.79946837549080751</c:v>
+                  <c:v>0.81427356425564046</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.80908550521099143</c:v>
+                  <c:v>0.82418266944700003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.81716894225800618</c:v>
+                  <c:v>0.83239349334295187</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.82377647423552247</c:v>
+                  <c:v>0.83937403998479776</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.82924582725849061</c:v>
+                  <c:v>0.84547680362122635</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.83363612703235412</c:v>
+                  <c:v>0.85093366680939242</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.83708143067929985</c:v>
+                  <c:v>0.8558507985160001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,64 +673,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7914255092523383</c:v>
+                  <c:v>2.0070790239876999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5828510185046767</c:v>
+                  <c:v>4.0141580479753998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.374276527757015</c:v>
+                  <c:v>6.0212370719630997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1657020370093534</c:v>
+                  <c:v>8.0283160959507995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9571275462616917</c:v>
+                  <c:v>10.035395119938499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.74855305551403</c:v>
+                  <c:v>12.042474143926199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.539978564766368</c:v>
+                  <c:v>14.049553167913899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.331404074018707</c:v>
+                  <c:v>16.056632191901599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.122829583271045</c:v>
+                  <c:v>18.063711215889299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.914255092523383</c:v>
+                  <c:v>20.070790239876999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.705680601775722</c:v>
+                  <c:v>22.077869263864699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.49710611102806</c:v>
+                  <c:v>24.084948287852399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.288531620280398</c:v>
+                  <c:v>26.092027311840098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.079957129532737</c:v>
+                  <c:v>28.099106335827798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.871382638785075</c:v>
+                  <c:v>30.106185359815498</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.662808148037414</c:v>
+                  <c:v>32.113264383803198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.454233657289752</c:v>
+                  <c:v>34.120343407790898</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.24565916654209</c:v>
+                  <c:v>36.127422431778598</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.037084675794432</c:v>
+                  <c:v>38.134501455766298</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.828510185046767</c:v>
+                  <c:v>40.141580479753998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,67 +742,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.894023503881183E-3</c:v>
+                  <c:v>0.16133216780000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27153695790166599</c:v>
+                  <c:v>0.35712941053088004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42463533078229238</c:v>
+                  <c:v>0.50401686067616003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52361141695830393</c:v>
+                  <c:v>0.61165983869984009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59160114240740347</c:v>
+                  <c:v>0.68838152124512009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64078400730757323</c:v>
+                  <c:v>0.74125917380000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67806965027487975</c:v>
+                  <c:v>0.77622038336288002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.70701687591115858</c:v>
+                  <c:v>0.79813929110816006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.72966566816897782</c:v>
+                  <c:v>0.81093282505184006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.74784479042321206</c:v>
+                  <c:v>0.81765693271712014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76256599717551765</c:v>
+                  <c:v>0.82060281380000011</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.77466768985951584</c:v>
+                  <c:v>0.82139315283488001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78443681726415204</c:v>
+                  <c:v>0.82107835186016009</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.79255854463672271</c:v>
+                  <c:v>0.82023276308384008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.79908113658441715</c:v>
+                  <c:v>0.81905092154912007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.80443101463357358</c:v>
+                  <c:v>0.8174437778000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.80874250477175702</c:v>
+                  <c:v>0.81513493054688002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.81207954689774664</c:v>
+                  <c:v>0.81175685933216002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.81464004213052954</c:v>
+                  <c:v>0.80694715719583998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.81647239152538764</c:v>
+                  <c:v>0.80044476334111991</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.81765554424805809</c:v>
+                  <c:v>0.79218619579999983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,64 +876,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7914255092523383</c:v>
+                  <c:v>2.0070790239876999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5828510185046767</c:v>
+                  <c:v>4.0141580479753998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.374276527757015</c:v>
+                  <c:v>6.0212370719630997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1657020370093534</c:v>
+                  <c:v>8.0283160959507995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9571275462616917</c:v>
+                  <c:v>10.035395119938499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.74855305551403</c:v>
+                  <c:v>12.042474143926199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.539978564766368</c:v>
+                  <c:v>14.049553167913899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.331404074018707</c:v>
+                  <c:v>16.056632191901599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.122829583271045</c:v>
+                  <c:v>18.063711215889299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.914255092523383</c:v>
+                  <c:v>20.070790239876999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.705680601775722</c:v>
+                  <c:v>22.077869263864699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.49710611102806</c:v>
+                  <c:v>24.084948287852399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.288531620280398</c:v>
+                  <c:v>26.092027311840098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.079957129532737</c:v>
+                  <c:v>28.099106335827798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.871382638785075</c:v>
+                  <c:v>30.106185359815498</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.662808148037414</c:v>
+                  <c:v>32.113264383803198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.454233657289752</c:v>
+                  <c:v>34.120343407790898</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.24565916654209</c:v>
+                  <c:v>36.127422431778598</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.037084675794432</c:v>
+                  <c:v>38.134501455766298</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.828510185046767</c:v>
+                  <c:v>40.141580479753998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,67 +945,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>11.334762491408528</c:v>
+                  <c:v>12.517668653332775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.66681649134196</c:v>
+                  <c:v>13.264081618154266</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.100878413704438</c:v>
+                  <c:v>14.036599256539414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.634824911874398</c:v>
+                  <c:v>14.854748752275302</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.253430367780121</c:v>
+                  <c:v>15.734486104233678</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.94627424592721</c:v>
+                  <c:v>16.688387818946566</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.712676585107225</c:v>
+                  <c:v>17.725842603181803</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.545086680161628</c:v>
+                  <c:v>18.853243056518629</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.426271420122429</c:v>
+                  <c:v>20.074177363923269</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.359108066129842</c:v>
+                  <c:v>21.389620988324481</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.33782176452587</c:v>
+                  <c:v>22.798128363189168</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.368004281452549</c:v>
+                  <c:v>24.2960245850979</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20.423447737164157</c:v>
+                  <c:v>25.877597106320543</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.532599417443926</c:v>
+                  <c:v>27.535287427391786</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.658716974681315</c:v>
+                  <c:v>29.259882789686745</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.831322655680392</c:v>
+                  <c:v>31.040707867996524</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.047061946610132</c:v>
+                  <c:v>32.865816463103791</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26.280580606647536</c:v>
+                  <c:v>34.72218319435833</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.561673608888686</c:v>
+                  <c:v>36.595895192252669</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.875984716964048</c:v>
+                  <c:v>38.472343790997598</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>30.230901014068522</c:v>
+                  <c:v>40.336416221097764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1376,6 +1375,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1393071360"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1584,64 +1584,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7914255092523383</c:v>
+                  <c:v>2.0070790239876999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5828510185046767</c:v>
+                  <c:v>4.0141580479753998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.374276527757015</c:v>
+                  <c:v>6.0212370719630997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1657020370093534</c:v>
+                  <c:v>8.0283160959507995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9571275462616917</c:v>
+                  <c:v>10.035395119938499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.74855305551403</c:v>
+                  <c:v>12.042474143926199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.539978564766368</c:v>
+                  <c:v>14.049553167913899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.331404074018707</c:v>
+                  <c:v>16.056632191901599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.122829583271045</c:v>
+                  <c:v>18.063711215889299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.914255092523383</c:v>
+                  <c:v>20.070790239876999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.705680601775722</c:v>
+                  <c:v>22.077869263864699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.49710611102806</c:v>
+                  <c:v>24.084948287852399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.288531620280398</c:v>
+                  <c:v>26.092027311840098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.079957129532737</c:v>
+                  <c:v>28.099106335827798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.871382638785075</c:v>
+                  <c:v>30.106185359815498</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.662808148037414</c:v>
+                  <c:v>32.113264383803198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.454233657289752</c:v>
+                  <c:v>34.120343407790898</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.24565916654209</c:v>
+                  <c:v>36.127422431778598</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.037084675794432</c:v>
+                  <c:v>38.134501455766298</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.828510185046767</c:v>
+                  <c:v>40.141580479753998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,67 +1653,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.4123907069788508E-2</c:v>
+                  <c:v>3.6466315454021257E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7587349669793388</c:v>
+                  <c:v>3.0291471051521071</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.4848632810927</c:v>
+                  <c:v>8.3735081664627025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.256060009762304</c:v>
+                  <c:v>15.056793691111102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.008528290464383</c:v>
+                  <c:v>22.384519526636858</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.737993160887168</c:v>
+                  <c:v>29.917580483950939</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.495013229612216</c:v>
+                  <c:v>37.407792832824363</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.272261726825604</c:v>
+                  <c:v>44.741730805739223</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.009587465138651</c:v>
+                  <c:v>51.895517264608671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.75432364254354</c:v>
+                  <c:v>58.899836389836182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.498911640797651</c:v>
+                  <c:v>65.813267965532972</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52.285001797189445</c:v>
+                  <c:v>72.702024348327726</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>57.005207104444658</c:v>
+                  <c:v>79.624624882242202</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61.795960499490043</c:v>
+                  <c:v>86.620586325580689</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>66.505412439324047</c:v>
+                  <c:v>93.702666947122893</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>71.2624718565351</c:v>
+                  <c:v>100.85253350443335</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>76.051611239866844</c:v>
+                  <c:v>108.01995165627025</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80.774154692632948</c:v>
+                  <c:v>115.12578019798387</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>85.542934045257681</c:v>
+                  <c:v>122.06921207209315</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90.299291561646243</c:v>
+                  <c:v>128.73984678935253</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>95.064571216854773</c:v>
+                  <c:v>135.03524690714451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,64 +1787,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7914255092523383</c:v>
+                  <c:v>2.0070790239876999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5828510185046767</c:v>
+                  <c:v>4.0141580479753998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.374276527757015</c:v>
+                  <c:v>6.0212370719630997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1657020370093534</c:v>
+                  <c:v>8.0283160959507995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9571275462616917</c:v>
+                  <c:v>10.035395119938499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.74855305551403</c:v>
+                  <c:v>12.042474143926199</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.539978564766368</c:v>
+                  <c:v>14.049553167913899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.331404074018707</c:v>
+                  <c:v>16.056632191901599</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.122829583271045</c:v>
+                  <c:v>18.063711215889299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.914255092523383</c:v>
+                  <c:v>20.070790239876999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.705680601775722</c:v>
+                  <c:v>22.077869263864699</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21.49710611102806</c:v>
+                  <c:v>24.084948287852399</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.288531620280398</c:v>
+                  <c:v>26.092027311840098</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.079957129532737</c:v>
+                  <c:v>28.099106335827798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.871382638785075</c:v>
+                  <c:v>30.106185359815498</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.662808148037414</c:v>
+                  <c:v>32.113264383803198</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.454233657289752</c:v>
+                  <c:v>34.120343407790898</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32.24565916654209</c:v>
+                  <c:v>36.127422431778598</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.037084675794432</c:v>
+                  <c:v>38.134501455766298</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.828510185046767</c:v>
+                  <c:v>40.141580479753998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1856,67 +1856,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1.4208984375000001E-3</c:v>
+                  <c:v>-3.517871111111015E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5781249999999997E-3</c:v>
+                  <c:v>-9.2605641961207574E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7499999999999999E-3</c:v>
+                  <c:v>1.769229194534816E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9511718749999994E-3</c:v>
+                  <c:v>4.5782629648897233E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1669921875000004E-3</c:v>
+                  <c:v>7.5075029564367624E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3974609374999993E-3</c:v>
+                  <c:v>1.0560125623055527E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.6572265625000019E-3</c:v>
+                  <c:v>1.3736563364994514E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9462890624999988E-3</c:v>
+                  <c:v>1.7035042086341434E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.125E-2</c:v>
+                  <c:v>2.0452118752496418E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2583007812500002E-2</c:v>
+                  <c:v>2.3983218947643326E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3945312499999998E-2</c:v>
+                  <c:v>2.7623174432222286E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5351562499999999E-2</c:v>
+                  <c:v>3.136676070040112E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6772460937499997E-2</c:v>
+                  <c:v>3.5209234537548206E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.8251953124999998E-2</c:v>
+                  <c:v>3.9146871577703024E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9746093749999999E-2</c:v>
+                  <c:v>4.3177503861050015E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1298828124999995E-2</c:v>
+                  <c:v>4.7301057391389012E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.2910156250000001E-2</c:v>
+                  <c:v>5.1520089693607884E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4550781250000001E-2</c:v>
+                  <c:v>5.5840327371154852E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.6264648437499996E-2</c:v>
+                  <c:v>6.0271203663509798E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8037109374999994E-2</c:v>
+                  <c:v>6.4826396003656583E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.9882812499999998E-2</c:v>
+                  <c:v>6.9524363575555581E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2908,25 +2908,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>11.354164126856899</c:v>
+                  <c:v>11.354164126856894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.658243058642954</c:v>
+                  <c:v>12.658243058642951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.580673940592822</c:v>
+                  <c:v>15.580673940592819</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.108904169085012</c:v>
+                  <c:v>19.108904169085008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.850398520048078</c:v>
+                  <c:v>22.850398520048074</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>26.617210148186317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.316409395893082</c:v>
+                  <c:v>30.316409395893078</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>33.899878942604325</c:v>
@@ -2938,7 +2938,7 @@
                   <c:v>40.631218864996519</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.761355939368642</c:v>
+                  <c:v>43.761355939368634</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>46.732314208683803</c:v>
@@ -2953,19 +2953,19 @@
                   <c:v>54.724496287701392</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>57.100208104966775</c:v>
+                  <c:v>57.100208104966768</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>59.342803077305781</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61.459330121624639</c:v>
+                  <c:v>61.459330121624632</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>63.456840258488249</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65.342265401046618</c:v>
+                  <c:v>65.342265401046603</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>67.122334167734621</c:v>
@@ -2992,10 +2992,10 @@
                   <c:v>84.038378446784435</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>85.60994254124418</c:v>
+                  <c:v>85.609942541244166</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>87.041240244931771</c:v>
+                  <c:v>87.041240244931757</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>88.348386583392369</c:v>
@@ -3022,7 +3022,7 @@
                   <c:v>108.20789723832284</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>108.72440135783684</c:v>
+                  <c:v>108.72440135783683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,34 +3219,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>2.6777822282330031E-2</c:v>
+                  <c:v>2.6777822282330017E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52684819904549696</c:v>
+                  <c:v>0.52684819904549673</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.70806633232072069</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77189370310834182</c:v>
+                  <c:v>0.77189370310834171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8000472948165408</c:v>
+                  <c:v>0.80004729481654069</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.81283464964630447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81770882024484726</c:v>
+                  <c:v>0.81770882024484715</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81804474736978694</c:v>
+                  <c:v>0.81804474736978683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81558936606877608</c:v>
+                  <c:v>0.81558936606877597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81133500178274343</c:v>
+                  <c:v>0.81133500178274331</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.80588513975507914</c:v>
@@ -3255,7 +3255,7 @@
                   <c:v>0.79962636803307763</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79281659046305553</c:v>
+                  <c:v>0.79281659046305542</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.78563350078966643</c:v>
@@ -3297,13 +3297,13 @@
                   <c:v>0.66036829562574306</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.64724314942688654</c:v>
+                  <c:v>0.64724314942688643</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.63453734025740038</c:v>
+                  <c:v>0.63453734025740016</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.62224208879865228</c:v>
+                  <c:v>0.62224208879865217</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.61034612421854972</c:v>
@@ -3315,7 +3315,7 @@
                   <c:v>0.50201047425271972</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.43021384795266604</c:v>
+                  <c:v>0.43021384795266587</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.37510554541135332</c:v>
@@ -3327,7 +3327,7 @@
                   <c:v>0.29625607905792939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.26710820429027682</c:v>
+                  <c:v>0.26710820429027687</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.24262793328636234</c:v>
@@ -3516,64 +3516,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.25045768344878</c:v>
+                  <c:v>0.25045768344878028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4715546473711214</c:v>
+                  <c:v>0.47155464737112168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66032400326919916</c:v>
+                  <c:v>0.66032400326919938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75403379383120028</c:v>
+                  <c:v>0.75403379383120051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80117974088426325</c:v>
+                  <c:v>0.80117974088426347</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.82534024685309237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83726621978521709</c:v>
+                  <c:v>0.83726621978521731</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84213567888648388</c:v>
+                  <c:v>0.842135678886484</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8426453130130005</c:v>
+                  <c:v>0.84264531301300061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84031185888949356</c:v>
+                  <c:v>0.84031185888949367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83604967911963857</c:v>
+                  <c:v>0.83604967911963868</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.83044425084784801</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.82389007675276349</c:v>
+                  <c:v>0.8238900767527636</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.81666438460969437</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.80896866178506321</c:v>
+                  <c:v>0.80896866178506333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.80095323717894307</c:v>
+                  <c:v>0.80095323717894329</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.79273250617933233</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.7843947671424456</c:v>
+                  <c:v>0.78439476714244571</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.77600882943078819</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.76762861337655997</c:v>
+                  <c:v>0.76762861337656019</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.75929645590345696</c:v>
@@ -3588,22 +3588,22 @@
                   <c:v>0.71173315598790088</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.69712488316222188</c:v>
+                  <c:v>0.69712488316222199</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.68320954590435401</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.66998783907073778</c:v>
+                  <c:v>0.66998783907073789</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65744585932670774</c:v>
+                  <c:v>0.65744585932670796</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.64556049930661463</c:v>
+                  <c:v>0.64556049930661485</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.634303151913713</c:v>
+                  <c:v>0.63430315191371311</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.6236422476143606</c:v>
@@ -3612,7 +3612,7 @@
                   <c:v>0.54298374744525379</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.49296812876560925</c:v>
+                  <c:v>0.49296812876560941</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.45950256934074796</c:v>
@@ -3624,13 +3624,13 @@
                   <c:v>0.41794610383771225</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.40422604085944636</c:v>
+                  <c:v>0.4042260408594463</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.39331306714419811</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.38443075331109733</c:v>
+                  <c:v>0.38443075331109738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4000,6 +4000,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1574271280"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -4471,25 +4472,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>11.354164126856899</c:v>
+                  <c:v>11.354164126856894</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.658243058642954</c:v>
+                  <c:v>12.658243058642951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.580673940592822</c:v>
+                  <c:v>15.580673940592819</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.108904169085012</c:v>
+                  <c:v>19.108904169085008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.850398520048078</c:v>
+                  <c:v>22.850398520048074</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>26.617210148186317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.316409395893082</c:v>
+                  <c:v>30.316409395893078</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>33.899878942604325</c:v>
@@ -4501,7 +4502,7 @@
                   <c:v>40.631218864996519</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.761355939368642</c:v>
+                  <c:v>43.761355939368634</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>46.732314208683803</c:v>
@@ -4516,19 +4517,19 @@
                   <c:v>54.724496287701392</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>57.100208104966775</c:v>
+                  <c:v>57.100208104966768</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>59.342803077305781</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61.459330121624639</c:v>
+                  <c:v>61.459330121624632</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>63.456840258488249</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65.342265401046618</c:v>
+                  <c:v>65.342265401046603</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>67.122334167734621</c:v>
@@ -4674,34 +4675,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.6777822282330031E-2</c:v>
+                  <c:v>2.6777822282330017E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52684819904549696</c:v>
+                  <c:v>0.52684819904549673</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.70806633232072069</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77189370310834182</c:v>
+                  <c:v>0.77189370310834171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8000472948165408</c:v>
+                  <c:v>0.80004729481654069</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.81283464964630447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81770882024484726</c:v>
+                  <c:v>0.81770882024484715</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81804474736978694</c:v>
+                  <c:v>0.81804474736978683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81558936606877608</c:v>
+                  <c:v>0.81558936606877597</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81133500178274343</c:v>
+                  <c:v>0.81133500178274331</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.80588513975507914</c:v>
@@ -4710,7 +4711,7 @@
                   <c:v>0.79962636803307763</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79281659046305553</c:v>
+                  <c:v>0.79281659046305542</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.78563350078966643</c:v>
@@ -4863,64 +4864,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.25045768344878</c:v>
+                  <c:v>0.25045768344878028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4715546473711214</c:v>
+                  <c:v>0.47155464737112168</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66032400326919916</c:v>
+                  <c:v>0.66032400326919938</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75403379383120028</c:v>
+                  <c:v>0.75403379383120051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80117974088426325</c:v>
+                  <c:v>0.80117974088426347</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.82534024685309237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83726621978521709</c:v>
+                  <c:v>0.83726621978521731</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84213567888648388</c:v>
+                  <c:v>0.842135678886484</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8426453130130005</c:v>
+                  <c:v>0.84264531301300061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84031185888949356</c:v>
+                  <c:v>0.84031185888949367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83604967911963857</c:v>
+                  <c:v>0.83604967911963868</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.83044425084784801</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.82389007675276349</c:v>
+                  <c:v>0.8238900767527636</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.81666438460969437</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.80896866178506321</c:v>
+                  <c:v>0.80896866178506333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.80095323717894307</c:v>
+                  <c:v>0.80095323717894329</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.79273250617933233</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.7843947671424456</c:v>
+                  <c:v>0.78439476714244571</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.77600882943078819</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.76762861337655997</c:v>
+                  <c:v>0.76762861337656019</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.75929645590345696</c:v>
@@ -5418,7 +5419,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> УЭЦН от напряжения</a:t>
+              <a:t> АПЭД от напряжения</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -5548,31 +5549,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.80071502698360797</c:v>
+                  <c:v>0.79186525033863675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8006880378076715</c:v>
+                  <c:v>0.80559955930273786</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79764377235663741</c:v>
+                  <c:v>0.81504701819177705</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7921393592023307</c:v>
+                  <c:v>0.82020762700575456</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78443681726415204</c:v>
+                  <c:v>0.82107835186016009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77504952576125152</c:v>
+                  <c:v>0.81766829440852362</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7638942599984907</c:v>
+                  <c:v>0.80996835299731518</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75128810084915187</c:v>
+                  <c:v>0.79798156151104527</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73748936207564486</c:v>
+                  <c:v>0.781707919949713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5665,31 +5666,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.80162428490550897</c:v>
+                  <c:v>0.78613328968537366</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80925370774334859</c:v>
+                  <c:v>0.79976818209022016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81219405354680674</c:v>
+                  <c:v>0.80914725502268137</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81177353400806496</c:v>
+                  <c:v>0.81427050848275739</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80874250477175702</c:v>
+                  <c:v>0.81513493054688002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80347342092980911</c:v>
+                  <c:v>0.8117495569857538</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79634007265630546</c:v>
+                  <c:v>0.80410535202867384</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.78758686640541309</c:v>
+                  <c:v>0.79220532759920903</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77740387892022922</c:v>
+                  <c:v>0.7760494836973586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5782,31 +5783,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.7827905299155945</c:v>
+                  <c:v>0.76400104670987234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.80010953836578724</c:v>
+                  <c:v>0.77725207195681023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81090754273073673</c:v>
+                  <c:v>0.78636709307547625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81614394607211949</c:v>
+                  <c:v>0.79134611006587063</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81765554424805809</c:v>
+                  <c:v>0.79218619579999983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81635647389300026</c:v>
+                  <c:v>0.78889613166184391</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81281216838584269</c:v>
+                  <c:v>0.7814671362674227</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80733596164843802</c:v>
+                  <c:v>0.76990213674472996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.80026503566440754</c:v>
+                  <c:v>0.75420113309376513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8922,15 +8923,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>385761</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>83202</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>177613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
+      <xdr:colOff>78441</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8958,15 +8959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>236444</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1681</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>423863</xdr:colOff>
+      <xdr:colOff>134471</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8995,16 +8996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80521</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>111179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9033,16 +9034,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>82923</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>189379</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9071,16 +9072,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>18368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444954</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>80281</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9175,7 +9176,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t> показывает характеристики погружного ассинхронного электрического двигателя, применяемого в УЭЦН.</a:t>
+            <a:t> показывает характеристики погружного асинхронного электрического двигателя, применяемого в УЭЦН.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9238,7 +9239,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>Расчетные функции для образовательных целей. Детального сопоставления расчетных характеристик с фактическими не проводилось. (06,2019)</a:t>
+            <a:t>Расчетные функции для образовательных целей. Детального сопоставления расчетных характеристик с фактическими не проводилось. (06.2019)</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
         </a:p>
@@ -9250,33 +9251,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ESPbase"/>
-      <sheetName val="Info"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="motor_CosPhi_d"/>
-      <definedName name="motor_CosPhi_slip"/>
-      <definedName name="motor_Eff_d"/>
-      <definedName name="motor_Eff_slip"/>
-      <definedName name="motor_I_A"/>
-      <definedName name="motor_I_slip_A"/>
-      <definedName name="motor_M_Nm"/>
-      <definedName name="motor_M_slip_Nm"/>
-      <definedName name="Motor_Pnom_kW"/>
-      <definedName name="motor_S_d"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -9304,6 +9278,33 @@
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ESPbase"/>
+      <sheetName val="Info"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="motor_CosPhi_d"/>
+      <definedName name="motor_CosPhi_slip"/>
+      <definedName name="motor_Eff_d"/>
+      <definedName name="motor_Eff_slip"/>
+      <definedName name="motor_I_A"/>
+      <definedName name="motor_I_slip_A"/>
+      <definedName name="motor_M_Nm"/>
+      <definedName name="motor_M_slip_Nm"/>
+      <definedName name="Motor_Pnom_kW"/>
+      <definedName name="motor_S_d"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9609,8 +9610,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9625,16 +9626,16 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
@@ -9642,1733 +9643,1733 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>1000</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>1000</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>50</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>60</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>34</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="11">
-        <f>[1]!Motor_Pnom_kW(Unom,Inom,Fnom,ID)</f>
-        <v>35.828510185046767</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="10">
+        <f>[2]!Motor_Pnom_kW(Unom,Inom,Fnom,ID)</f>
+        <v>40.141580479753998</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>0</v>
       </c>
-      <c r="C18" s="10">
-        <f>[1]!motor_I_A(B18,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>11.334762491408528</v>
-      </c>
-      <c r="D18" s="10">
-        <f>[1]!motor_CosPhi_d(B18,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.24457966722671587</v>
-      </c>
-      <c r="E18" s="10">
-        <f>[1]!motor_Eff_d(B18,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>1.894023503881183E-3</v>
-      </c>
-      <c r="F18" s="10">
-        <f>[1]!motor_S_d(B18,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>1.4208984375000001E-3</v>
-      </c>
-      <c r="G18" s="10">
-        <f>[1]!motor_M_Nm(B18,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>2.4123907069788508E-2</v>
+      <c r="C18" s="9">
+        <f>[2]!motor_I_A(B18,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>12.517668653332775</v>
+      </c>
+      <c r="D18" s="9">
+        <f>[2]!motor_CosPhi_d(B18,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>3.9440559399999998E-3</v>
+      </c>
+      <c r="E18" s="9">
+        <f>[2]!motor_Eff_d(B18,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.16133216780000001</v>
+      </c>
+      <c r="F18" s="9">
+        <f>[2]!motor_S_d(B18,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>-3.517871111111015E-3</v>
+      </c>
+      <c r="G18" s="9">
+        <f>[2]!motor_M_Nm(B18,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>3.6466315454021257E-2</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
-        <f>Pnom_*0.05+B18</f>
-        <v>1.7914255092523383</v>
-      </c>
-      <c r="C19" s="10">
-        <f>[1]!motor_I_A(B19,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>11.66681649134196</v>
-      </c>
-      <c r="D19" s="10">
-        <f>[1]!motor_CosPhi_d(B19,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.3269495125580964</v>
-      </c>
-      <c r="E19" s="10">
-        <f>[1]!motor_Eff_d(B19,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.27153695790166599</v>
-      </c>
-      <c r="F19" s="10">
-        <f>[1]!motor_S_d(B19,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>2.5781249999999997E-3</v>
-      </c>
-      <c r="G19" s="10">
-        <f>[1]!motor_M_Nm(B19,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>4.7587349669793388</v>
+      <c r="B19" s="8">
+        <f t="shared" ref="B19:B38" si="0">Pnom_*0.05+B18</f>
+        <v>2.0070790239876999</v>
+      </c>
+      <c r="C19" s="9">
+        <f>[2]!motor_I_A(B19,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>13.264081618154266</v>
+      </c>
+      <c r="D19" s="9">
+        <f>[2]!motor_CosPhi_d(B19,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.13931248804209567</v>
+      </c>
+      <c r="E19" s="9">
+        <f>[2]!motor_Eff_d(B19,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.35712941053088004</v>
+      </c>
+      <c r="F19" s="9">
+        <f>[2]!motor_S_d(B19,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>-9.2605641961207574E-4</v>
+      </c>
+      <c r="G19" s="9">
+        <f>[2]!motor_M_Nm(B19,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>3.0291471051521071</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
-        <f>Pnom_*0.05+B19</f>
-        <v>3.5828510185046767</v>
-      </c>
-      <c r="C20" s="10">
-        <f>[1]!motor_I_A(B20,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>12.100878413704438</v>
-      </c>
-      <c r="D20" s="10">
-        <f>[1]!motor_CosPhi_d(B20,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.40176170965864788</v>
-      </c>
-      <c r="E20" s="10">
-        <f>[1]!motor_Eff_d(B20,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.42463533078229238</v>
-      </c>
-      <c r="F20" s="10">
-        <f>[1]!motor_S_d(B20,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>3.7499999999999999E-3</v>
-      </c>
-      <c r="G20" s="10">
-        <f>[1]!motor_M_Nm(B20,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>9.4848632810927</v>
+      <c r="B20" s="8">
+        <f t="shared" si="0"/>
+        <v>4.0141580479753998</v>
+      </c>
+      <c r="C20" s="9">
+        <f>[2]!motor_I_A(B20,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>14.036599256539414</v>
+      </c>
+      <c r="D20" s="9">
+        <f>[2]!motor_CosPhi_d(B20,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.25715911744034176</v>
+      </c>
+      <c r="E20" s="9">
+        <f>[2]!motor_Eff_d(B20,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.50401686067616003</v>
+      </c>
+      <c r="F20" s="9">
+        <f>[2]!motor_S_d(B20,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>1.769229194534816E-3</v>
+      </c>
+      <c r="G20" s="9">
+        <f>[2]!motor_M_Nm(B20,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>8.3735081664627025</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
-        <f>Pnom_*0.05+B20</f>
-        <v>5.374276527757015</v>
-      </c>
-      <c r="C21" s="10">
-        <f>[1]!motor_I_A(B21,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>12.634824911874398</v>
-      </c>
-      <c r="D21" s="10">
-        <f>[1]!motor_CosPhi_d(B21,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.46902033304778984</v>
-      </c>
-      <c r="E21" s="10">
-        <f>[1]!motor_Eff_d(B21,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.52361141695830393</v>
-      </c>
-      <c r="F21" s="10">
-        <f>[1]!motor_S_d(B21,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>4.9511718749999994E-3</v>
-      </c>
-      <c r="G21" s="10">
-        <f>[1]!motor_M_Nm(B21,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>14.256060009762304</v>
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
+        <v>6.0212370719630997</v>
+      </c>
+      <c r="C21" s="9">
+        <f>[2]!motor_I_A(B21,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>14.854748752275302</v>
+      </c>
+      <c r="D21" s="9">
+        <f>[2]!motor_CosPhi_d(B21,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.35903338588621025</v>
+      </c>
+      <c r="E21" s="9">
+        <f>[2]!motor_Eff_d(B21,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.61165983869984009</v>
+      </c>
+      <c r="F21" s="9">
+        <f>[2]!motor_S_d(B21,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>4.5782629648897233E-3</v>
+      </c>
+      <c r="G21" s="9">
+        <f>[2]!motor_M_Nm(B21,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>15.056793691111102</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
-        <f>Pnom_*0.05+B21</f>
-        <v>7.1657020370093534</v>
-      </c>
-      <c r="C22" s="10">
-        <f>[1]!motor_I_A(B22,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>13.253430367780121</v>
-      </c>
-      <c r="D22" s="10">
-        <f>[1]!motor_CosPhi_d(B22,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.52766912107786623</v>
-      </c>
-      <c r="E22" s="10">
-        <f>[1]!motor_Eff_d(B22,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.59160114240740347</v>
-      </c>
-      <c r="F22" s="10">
-        <f>[1]!motor_S_d(B22,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>6.1669921875000004E-3</v>
-      </c>
-      <c r="G22" s="10">
-        <f>[1]!motor_M_Nm(B22,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>19.008528290464383</v>
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
+        <v>8.0283160959507995</v>
+      </c>
+      <c r="C22" s="9">
+        <f>[2]!motor_I_A(B22,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>15.734486104233678</v>
+      </c>
+      <c r="D22" s="9">
+        <f>[2]!motor_CosPhi_d(B22,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.44644065192341637</v>
+      </c>
+      <c r="E22" s="9">
+        <f>[2]!motor_Eff_d(B22,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.68838152124512009</v>
+      </c>
+      <c r="F22" s="9">
+        <f>[2]!motor_S_d(B22,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>7.5075029564367624E-3</v>
+      </c>
+      <c r="G22" s="9">
+        <f>[2]!motor_M_Nm(B22,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>22.384519526636858</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
-        <f>Pnom_*0.05+B22</f>
-        <v>8.9571275462616917</v>
-      </c>
-      <c r="C23" s="10">
-        <f>[1]!motor_I_A(B23,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>13.94627424592721</v>
-      </c>
-      <c r="D23" s="10">
-        <f>[1]!motor_CosPhi_d(B23,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.57815545355435194</v>
-      </c>
-      <c r="E23" s="10">
-        <f>[1]!motor_Eff_d(B23,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.64078400730757323</v>
-      </c>
-      <c r="F23" s="10">
-        <f>[1]!motor_S_d(B23,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>7.3974609374999993E-3</v>
-      </c>
-      <c r="G23" s="10">
-        <f>[1]!motor_M_Nm(B23,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>23.737993160887168</v>
+      <c r="B23" s="8">
+        <f t="shared" si="0"/>
+        <v>10.035395119938499</v>
+      </c>
+      <c r="C23" s="9">
+        <f>[2]!motor_I_A(B23,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>16.688387818946566</v>
+      </c>
+      <c r="D23" s="9">
+        <f>[2]!motor_CosPhi_d(B23,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.52083708898899994</v>
+      </c>
+      <c r="E23" s="9">
+        <f>[2]!motor_Eff_d(B23,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.74125917380000006</v>
+      </c>
+      <c r="F23" s="9">
+        <f>[2]!motor_S_d(B23,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>1.0560125623055527E-2</v>
+      </c>
+      <c r="G23" s="9">
+        <f>[2]!motor_M_Nm(B23,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>29.917580483950939</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
-        <f>Pnom_*0.05+B23</f>
-        <v>10.74855305551403</v>
-      </c>
-      <c r="C24" s="10">
-        <f>[1]!motor_I_A(B24,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>14.712676585107225</v>
-      </c>
-      <c r="D24" s="10">
-        <f>[1]!motor_CosPhi_d(B24,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.62168925275613518</v>
-      </c>
-      <c r="E24" s="10">
-        <f>[1]!motor_Eff_d(B24,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.67806965027487975</v>
-      </c>
-      <c r="F24" s="10">
-        <f>[1]!motor_S_d(B24,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>8.6572265625000019E-3</v>
-      </c>
-      <c r="G24" s="10">
-        <f>[1]!motor_M_Nm(B24,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>28.495013229612216</v>
+      <c r="B24" s="8">
+        <f t="shared" si="0"/>
+        <v>12.042474143926199</v>
+      </c>
+      <c r="C24" s="9">
+        <f>[2]!motor_I_A(B24,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>17.725842603181803</v>
+      </c>
+      <c r="D24" s="9">
+        <f>[2]!motor_CosPhi_d(B24,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.58362458351440771</v>
+      </c>
+      <c r="E24" s="9">
+        <f>[2]!motor_Eff_d(B24,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.77622038336288002</v>
+      </c>
+      <c r="F24" s="9">
+        <f>[2]!motor_S_d(B24,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>1.3736563364994514E-2</v>
+      </c>
+      <c r="G24" s="9">
+        <f>[2]!motor_M_Nm(B24,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>37.407792832824363</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="9">
-        <f>Pnom_*0.05+B24</f>
-        <v>12.539978564766368</v>
-      </c>
-      <c r="C25" s="10">
-        <f>[1]!motor_I_A(B25,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>15.545086680161628</v>
-      </c>
-      <c r="D25" s="10">
-        <f>[1]!motor_CosPhi_d(B25,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.65891574731462776</v>
-      </c>
-      <c r="E25" s="10">
-        <f>[1]!motor_Eff_d(B25,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.70701687591115858</v>
-      </c>
-      <c r="F25" s="10">
-        <f>[1]!motor_S_d(B25,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>9.9462890624999988E-3</v>
-      </c>
-      <c r="G25" s="10">
-        <f>[1]!motor_M_Nm(B25,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>33.272261726825604</v>
+      <c r="B25" s="8">
+        <f t="shared" si="0"/>
+        <v>14.049553167913899</v>
+      </c>
+      <c r="C25" s="9">
+        <f>[2]!motor_I_A(B25,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>18.853243056518629</v>
+      </c>
+      <c r="D25" s="9">
+        <f>[2]!motor_CosPhi_d(B25,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.63614563302657379</v>
+      </c>
+      <c r="E25" s="9">
+        <f>[2]!motor_Eff_d(B25,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.79813929110816006</v>
+      </c>
+      <c r="F25" s="9">
+        <f>[2]!motor_S_d(B25,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>1.7035042086341434E-2</v>
+      </c>
+      <c r="G25" s="9">
+        <f>[2]!motor_M_Nm(B25,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>44.741730805739223</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="9">
-        <f>Pnom_*0.05+B25</f>
-        <v>14.331404074018707</v>
-      </c>
-      <c r="C26" s="10">
-        <f>[1]!motor_I_A(B26,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>16.426271420122429</v>
-      </c>
-      <c r="D26" s="10">
-        <f>[1]!motor_CosPhi_d(B26,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.69024098033476233</v>
-      </c>
-      <c r="E26" s="10">
-        <f>[1]!motor_Eff_d(B26,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.72966566816897782</v>
-      </c>
-      <c r="F26" s="10">
-        <f>[1]!motor_S_d(B26,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>1.125E-2</v>
-      </c>
-      <c r="G26" s="10">
-        <f>[1]!motor_M_Nm(B26,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>38.009587465138651</v>
+      <c r="B26" s="8">
+        <f t="shared" si="0"/>
+        <v>16.056632191901599</v>
+      </c>
+      <c r="C26" s="9">
+        <f>[2]!motor_I_A(B26,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>20.074177363923269</v>
+      </c>
+      <c r="D26" s="9">
+        <f>[2]!motor_CosPhi_d(B26,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.67967824424900225</v>
+      </c>
+      <c r="E26" s="9">
+        <f>[2]!motor_Eff_d(B26,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.81093282505184006</v>
+      </c>
+      <c r="F26" s="9">
+        <f>[2]!motor_S_d(B26,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>2.0452118752496418E-2</v>
+      </c>
+      <c r="G26" s="9">
+        <f>[2]!motor_M_Nm(B26,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>51.895517264608671</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
-        <f>Pnom_*0.05+B26</f>
-        <v>16.122829583271045</v>
-      </c>
-      <c r="C27" s="10">
-        <f>[1]!motor_I_A(B27,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>17.359108066129842</v>
-      </c>
-      <c r="D27" s="10">
-        <f>[1]!motor_CosPhi_d(B27,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.71682253904251003</v>
-      </c>
-      <c r="E27" s="10">
-        <f>[1]!motor_Eff_d(B27,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.74784479042321206</v>
-      </c>
-      <c r="F27" s="10">
-        <f>[1]!motor_S_d(B27,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>1.2583007812500002E-2</v>
-      </c>
-      <c r="G27" s="10">
-        <f>[1]!motor_M_Nm(B27,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>42.75432364254354</v>
+      <c r="B27" s="8">
+        <f t="shared" si="0"/>
+        <v>18.063711215889299</v>
+      </c>
+      <c r="C27" s="9">
+        <f>[2]!motor_I_A(B27,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>21.389620988324481</v>
+      </c>
+      <c r="D27" s="9">
+        <f>[2]!motor_CosPhi_d(B27,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.71543083120284834</v>
+      </c>
+      <c r="E27" s="9">
+        <f>[2]!motor_Eff_d(B27,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.81765693271712014</v>
+      </c>
+      <c r="F27" s="9">
+        <f>[2]!motor_S_d(B27,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>2.3983218947643326E-2</v>
+      </c>
+      <c r="G27" s="9">
+        <f>[2]!motor_M_Nm(B27,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>58.899836389836182</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="9">
-        <f>Pnom_*0.05+B27</f>
-        <v>17.914255092523383</v>
-      </c>
-      <c r="C28" s="10">
-        <f>[1]!motor_I_A(B28,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>18.33782176452587</v>
-      </c>
-      <c r="D28" s="10">
-        <f>[1]!motor_CosPhi_d(B28,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.73931406172386704</v>
-      </c>
-      <c r="E28" s="10">
-        <f>[1]!motor_Eff_d(B28,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.76256599717551765</v>
-      </c>
-      <c r="F28" s="10">
-        <f>[1]!motor_S_d(B28,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>1.3945312499999998E-2</v>
-      </c>
-      <c r="G28" s="10">
-        <f>[1]!motor_M_Nm(B28,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>47.498911640797651</v>
+      <c r="B28" s="8">
+        <f t="shared" si="0"/>
+        <v>20.070790239876999</v>
+      </c>
+      <c r="C28" s="9">
+        <f>[2]!motor_I_A(B28,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>22.798128363189168</v>
+      </c>
+      <c r="D28" s="9">
+        <f>[2]!motor_CosPhi_d(B28,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.7445371133080001</v>
+      </c>
+      <c r="E28" s="9">
+        <f>[2]!motor_Eff_d(B28,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.82060281380000011</v>
+      </c>
+      <c r="F28" s="9">
+        <f>[2]!motor_S_d(B28,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>2.7623174432222286E-2</v>
+      </c>
+      <c r="G28" s="9">
+        <f>[2]!motor_M_Nm(B28,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>65.813267965532972</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
-        <f>Pnom_*0.05+B28</f>
-        <v>19.705680601775722</v>
-      </c>
-      <c r="C29" s="10">
-        <f>[1]!motor_I_A(B29,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>19.368004281452549</v>
-      </c>
-      <c r="D29" s="10">
-        <f>[1]!motor_CosPhi_d(B29,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.75848553637792904</v>
-      </c>
-      <c r="E29" s="10">
-        <f>[1]!motor_Eff_d(B29,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.77466768985951584</v>
-      </c>
-      <c r="F29" s="10">
-        <f>[1]!motor_S_d(B29,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>1.5351562499999999E-2</v>
-      </c>
-      <c r="G29" s="10">
-        <f>[1]!motor_M_Nm(B29,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>52.285001797189445</v>
+      <c r="B29" s="8">
+        <f t="shared" si="0"/>
+        <v>22.077869263864699</v>
+      </c>
+      <c r="C29" s="9">
+        <f>[2]!motor_I_A(B29,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>24.2960245850979</v>
+      </c>
+      <c r="D29" s="9">
+        <f>[2]!motor_CosPhi_d(B29,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.76805101348415972</v>
+      </c>
+      <c r="E29" s="9">
+        <f>[2]!motor_Eff_d(B29,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.82139315283488001</v>
+      </c>
+      <c r="F29" s="9">
+        <f>[2]!motor_S_d(B29,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>3.136676070040112E-2</v>
+      </c>
+      <c r="G29" s="9">
+        <f>[2]!motor_M_Nm(B29,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>72.702024348327726</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="9">
-        <f>Pnom_*0.05+B29</f>
-        <v>21.49710611102806</v>
-      </c>
-      <c r="C30" s="10">
-        <f>[1]!motor_I_A(B30,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>20.423447737164157</v>
-      </c>
-      <c r="D30" s="10">
-        <f>[1]!motor_CosPhi_d(B30,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.77445821688872019</v>
-      </c>
-      <c r="E30" s="10">
-        <f>[1]!motor_Eff_d(B30,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.78443681726415204</v>
-      </c>
-      <c r="F30" s="10">
-        <f>[1]!motor_S_d(B30,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>1.6772460937499997E-2</v>
-      </c>
-      <c r="G30" s="10">
-        <f>[1]!motor_M_Nm(B30,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>57.005207104444658</v>
+      <c r="B30" s="8">
+        <f t="shared" si="0"/>
+        <v>24.084948287852399</v>
+      </c>
+      <c r="C30" s="9">
+        <f>[2]!motor_I_A(B30,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>25.877597106320543</v>
+      </c>
+      <c r="D30" s="9">
+        <f>[2]!motor_CosPhi_d(B30,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.78694155625192574</v>
+      </c>
+      <c r="E30" s="9">
+        <f>[2]!motor_Eff_d(B30,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.82107835186016009</v>
+      </c>
+      <c r="F30" s="9">
+        <f>[2]!motor_S_d(B30,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>3.5209234537548206E-2</v>
+      </c>
+      <c r="G30" s="9">
+        <f>[2]!motor_M_Nm(B30,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>79.624624882242202</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
-        <f>Pnom_*0.05+B30</f>
-        <v>23.288531620280398</v>
-      </c>
-      <c r="C31" s="10">
-        <f>[1]!motor_I_A(B31,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>21.532599417443926</v>
-      </c>
-      <c r="D31" s="10">
-        <f>[1]!motor_CosPhi_d(B31,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.78813890238106776</v>
-      </c>
-      <c r="E31" s="10">
-        <f>[1]!motor_Eff_d(B31,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.79255854463672271</v>
-      </c>
-      <c r="F31" s="10">
-        <f>[1]!motor_S_d(B31,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>1.8251953124999998E-2</v>
-      </c>
-      <c r="G31" s="10">
-        <f>[1]!motor_M_Nm(B31,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>61.795960499490043</v>
+      <c r="B31" s="8">
+        <f t="shared" si="0"/>
+        <v>26.092027311840098</v>
+      </c>
+      <c r="C31" s="9">
+        <f>[2]!motor_I_A(B31,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>27.535287427391786</v>
+      </c>
+      <c r="D31" s="9">
+        <f>[2]!motor_CosPhi_d(B31,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.80208776583387431</v>
+      </c>
+      <c r="E31" s="9">
+        <f>[2]!motor_Eff_d(B31,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.82023276308384008</v>
+      </c>
+      <c r="F31" s="9">
+        <f>[2]!motor_S_d(B31,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>3.9146871577703024E-2</v>
+      </c>
+      <c r="G31" s="9">
+        <f>[2]!motor_M_Nm(B31,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>86.620586325580689</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="9">
-        <f>Pnom_*0.05+B31</f>
-        <v>25.079957129532737</v>
-      </c>
-      <c r="C32" s="10">
-        <f>[1]!motor_I_A(B32,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>22.658716974681315</v>
-      </c>
-      <c r="D32" s="10">
-        <f>[1]!motor_CosPhi_d(B32,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.79946837549080751</v>
-      </c>
-      <c r="E32" s="10">
-        <f>[1]!motor_Eff_d(B32,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.79908113658441715</v>
-      </c>
-      <c r="F32" s="10">
-        <f>[1]!motor_S_d(B32,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>1.9746093749999999E-2</v>
-      </c>
-      <c r="G32" s="10">
-        <f>[1]!motor_M_Nm(B32,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>66.505412439324047</v>
+      <c r="B32" s="8">
+        <f t="shared" si="0"/>
+        <v>28.099106335827798</v>
+      </c>
+      <c r="C32" s="9">
+        <f>[2]!motor_I_A(B32,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>29.259882789686745</v>
+      </c>
+      <c r="D32" s="9">
+        <f>[2]!motor_CosPhi_d(B32,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.81427356425564046</v>
+      </c>
+      <c r="E32" s="9">
+        <f>[2]!motor_Eff_d(B32,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.81905092154912007</v>
+      </c>
+      <c r="F32" s="9">
+        <f>[2]!motor_S_d(B32,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>4.3177503861050015E-2</v>
+      </c>
+      <c r="G32" s="9">
+        <f>[2]!motor_M_Nm(B32,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>93.702666947122893</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="9">
-        <f>Pnom_*0.05+B32</f>
-        <v>26.871382638785075</v>
-      </c>
-      <c r="C33" s="10">
-        <f>[1]!motor_I_A(B33,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>23.831322655680392</v>
-      </c>
-      <c r="D33" s="10">
-        <f>[1]!motor_CosPhi_d(B33,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.80908550521099143</v>
-      </c>
-      <c r="E33" s="10">
-        <f>[1]!motor_Eff_d(B33,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.80443101463357358</v>
-      </c>
-      <c r="F33" s="10">
-        <f>[1]!motor_S_d(B33,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>2.1298828124999995E-2</v>
-      </c>
-      <c r="G33" s="10">
-        <f>[1]!motor_M_Nm(B33,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>71.2624718565351</v>
+      <c r="B33" s="8">
+        <f t="shared" si="0"/>
+        <v>30.106185359815498</v>
+      </c>
+      <c r="C33" s="9">
+        <f>[2]!motor_I_A(B33,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>31.040707867996524</v>
+      </c>
+      <c r="D33" s="9">
+        <f>[2]!motor_CosPhi_d(B33,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.82418266944700003</v>
+      </c>
+      <c r="E33" s="9">
+        <f>[2]!motor_Eff_d(B33,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.8174437778000001</v>
+      </c>
+      <c r="F33" s="9">
+        <f>[2]!motor_S_d(B33,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>4.7301057391389012E-2</v>
+      </c>
+      <c r="G33" s="9">
+        <f>[2]!motor_M_Nm(B33,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>100.85253350443335</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="9">
-        <f>Pnom_*0.05+B33</f>
-        <v>28.662808148037414</v>
-      </c>
-      <c r="C34" s="10">
-        <f>[1]!motor_I_A(B34,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>25.047061946610132</v>
-      </c>
-      <c r="D34" s="10">
-        <f>[1]!motor_CosPhi_d(B34,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.81716894225800618</v>
-      </c>
-      <c r="E34" s="10">
-        <f>[1]!motor_Eff_d(B34,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.80874250477175702</v>
-      </c>
-      <c r="F34" s="10">
-        <f>[1]!motor_S_d(B34,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>2.2910156250000001E-2</v>
-      </c>
-      <c r="G34" s="10">
-        <f>[1]!motor_M_Nm(B34,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>76.051611239866844</v>
+      <c r="B34" s="8">
+        <f t="shared" si="0"/>
+        <v>32.113264383803198</v>
+      </c>
+      <c r="C34" s="9">
+        <f>[2]!motor_I_A(B34,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>32.865816463103791</v>
+      </c>
+      <c r="D34" s="9">
+        <f>[2]!motor_CosPhi_d(B34,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.83239349334295187</v>
+      </c>
+      <c r="E34" s="9">
+        <f>[2]!motor_Eff_d(B34,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.81513493054688002</v>
+      </c>
+      <c r="F34" s="9">
+        <f>[2]!motor_S_d(B34,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>5.1520089693607884E-2</v>
+      </c>
+      <c r="G34" s="9">
+        <f>[2]!motor_M_Nm(B34,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>108.01995165627025</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
-        <f>Pnom_*0.05+B34</f>
-        <v>30.454233657289752</v>
-      </c>
-      <c r="C35" s="10">
-        <f>[1]!motor_I_A(B35,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>26.280580606647536</v>
-      </c>
-      <c r="D35" s="10">
-        <f>[1]!motor_CosPhi_d(B35,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.82377647423552247</v>
-      </c>
-      <c r="E35" s="10">
-        <f>[1]!motor_Eff_d(B35,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.81207954689774664</v>
-      </c>
-      <c r="F35" s="10">
-        <f>[1]!motor_S_d(B35,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>2.4550781250000001E-2</v>
-      </c>
-      <c r="G35" s="10">
-        <f>[1]!motor_M_Nm(B35,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>80.774154692632948</v>
+      <c r="B35" s="8">
+        <f t="shared" si="0"/>
+        <v>34.120343407790898</v>
+      </c>
+      <c r="C35" s="9">
+        <f>[2]!motor_I_A(B35,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>34.72218319435833</v>
+      </c>
+      <c r="D35" s="9">
+        <f>[2]!motor_CosPhi_d(B35,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.83937403998479776</v>
+      </c>
+      <c r="E35" s="9">
+        <f>[2]!motor_Eff_d(B35,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.81175685933216002</v>
+      </c>
+      <c r="F35" s="9">
+        <f>[2]!motor_S_d(B35,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>5.5840327371154852E-2</v>
+      </c>
+      <c r="G35" s="9">
+        <f>[2]!motor_M_Nm(B35,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>115.12578019798387</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="9">
-        <f>Pnom_*0.05+B35</f>
-        <v>32.24565916654209</v>
-      </c>
-      <c r="C36" s="10">
-        <f>[1]!motor_I_A(B36,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>27.561673608888686</v>
-      </c>
-      <c r="D36" s="10">
-        <f>[1]!motor_CosPhi_d(B36,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.82924582725849061</v>
-      </c>
-      <c r="E36" s="10">
-        <f>[1]!motor_Eff_d(B36,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.81464004213052954</v>
-      </c>
-      <c r="F36" s="10">
-        <f>[1]!motor_S_d(B36,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>2.6264648437499996E-2</v>
-      </c>
-      <c r="G36" s="10">
-        <f>[1]!motor_M_Nm(B36,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>85.542934045257681</v>
+      <c r="B36" s="8">
+        <f t="shared" si="0"/>
+        <v>36.127422431778598</v>
+      </c>
+      <c r="C36" s="9">
+        <f>[2]!motor_I_A(B36,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>36.595895192252669</v>
+      </c>
+      <c r="D36" s="9">
+        <f>[2]!motor_CosPhi_d(B36,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.84547680362122635</v>
+      </c>
+      <c r="E36" s="9">
+        <f>[2]!motor_Eff_d(B36,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.80694715719583998</v>
+      </c>
+      <c r="F36" s="9">
+        <f>[2]!motor_S_d(B36,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>6.0271203663509798E-2</v>
+      </c>
+      <c r="G36" s="9">
+        <f>[2]!motor_M_Nm(B36,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>122.06921207209315</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="9">
-        <f>Pnom_*0.05+B36</f>
-        <v>34.037084675794432</v>
-      </c>
-      <c r="C37" s="10">
-        <f>[1]!motor_I_A(B37,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>28.875984716964048</v>
-      </c>
-      <c r="D37" s="10">
-        <f>[1]!motor_CosPhi_d(B37,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.83363612703235412</v>
-      </c>
-      <c r="E37" s="10">
-        <f>[1]!motor_Eff_d(B37,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.81647239152538764</v>
-      </c>
-      <c r="F37" s="10">
-        <f>[1]!motor_S_d(B37,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>2.8037109374999994E-2</v>
-      </c>
-      <c r="G37" s="10">
-        <f>[1]!motor_M_Nm(B37,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>90.299291561646243</v>
+      <c r="B37" s="8">
+        <f t="shared" si="0"/>
+        <v>38.134501455766298</v>
+      </c>
+      <c r="C37" s="9">
+        <f>[2]!motor_I_A(B37,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>38.472343790997598</v>
+      </c>
+      <c r="D37" s="9">
+        <f>[2]!motor_CosPhi_d(B37,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.85093366680939242</v>
+      </c>
+      <c r="E37" s="9">
+        <f>[2]!motor_Eff_d(B37,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.80044476334111991</v>
+      </c>
+      <c r="F37" s="9">
+        <f>[2]!motor_S_d(B37,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>6.4826396003656583E-2</v>
+      </c>
+      <c r="G37" s="9">
+        <f>[2]!motor_M_Nm(B37,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>128.73984678935253</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="9">
-        <f>Pnom_*0.05+B37</f>
-        <v>35.828510185046767</v>
-      </c>
-      <c r="C38" s="10">
-        <f>[1]!motor_I_A(B38,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>30.230901014068522</v>
-      </c>
-      <c r="D38" s="10">
-        <f>[1]!motor_CosPhi_d(B38,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.83708143067929985</v>
-      </c>
-      <c r="E38" s="10">
-        <f>[1]!motor_Eff_d(B38,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>0.81765554424805809</v>
-      </c>
-      <c r="F38" s="10">
-        <f>[1]!motor_S_d(B38,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>2.9882812499999998E-2</v>
-      </c>
-      <c r="G38" s="10">
-        <f>[1]!motor_M_Nm(B38,F,U,Unom,Inom,Fnom,ID)</f>
-        <v>95.064571216854773</v>
+      <c r="B38" s="8">
+        <f t="shared" si="0"/>
+        <v>40.141580479753998</v>
+      </c>
+      <c r="C38" s="9">
+        <f>[2]!motor_I_A(B38,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>40.336416221097764</v>
+      </c>
+      <c r="D38" s="9">
+        <f>[2]!motor_CosPhi_d(B38,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.8558507985160001</v>
+      </c>
+      <c r="E38" s="9">
+        <f>[2]!motor_Eff_d(B38,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>0.79218619579999983</v>
+      </c>
+      <c r="F38" s="9">
+        <f>[2]!motor_S_d(B38,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>6.9524363575555581E-2</v>
+      </c>
+      <c r="G38" s="9">
+        <f>[2]!motor_M_Nm(B38,F,U,Unom,Inom,Fnom,ID)</f>
+        <v>135.03524690714451</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <v>0</v>
       </c>
-      <c r="C45" s="10">
-        <f>[1]!motor_M_slip_Nm(B45,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C45" s="9">
+        <f>[2]!motor_M_slip_Nm(B45,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.34985999907695309</v>
       </c>
-      <c r="D45" s="10">
-        <f>[1]!motor_I_slip_A(B45,F,U,Unom,Inom,Fnom,0)</f>
-        <v>11.354164126856899</v>
-      </c>
-      <c r="E45" s="10">
-        <f>[1]!motor_Eff_slip(B45,F,U,Unom,Inom,Fnom,0)</f>
-        <v>2.6777822282330031E-2</v>
-      </c>
-      <c r="F45" s="10">
-        <f>[1]!motor_CosPhi_slip(B45,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.25045768344878</v>
+      <c r="D45" s="9">
+        <f>[2]!motor_I_slip_A(B45,F,U,Unom,Inom,Fnom,0)</f>
+        <v>11.354164126856894</v>
+      </c>
+      <c r="E45" s="9">
+        <f>[2]!motor_Eff_slip(B45,F,U,Unom,Inom,Fnom,0)</f>
+        <v>2.6777822282330017E-2</v>
+      </c>
+      <c r="F45" s="9">
+        <f>[2]!motor_CosPhi_slip(B45,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.25045768344878028</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C46" s="10">
-        <f>[1]!motor_M_slip_Nm(B46,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C46" s="9">
+        <f>[2]!motor_M_slip_Nm(B46,F,U,Unom,Inom,Fnom,0)</f>
         <v>14.448423684442965</v>
       </c>
-      <c r="D46" s="10">
-        <f>[1]!motor_I_slip_A(B46,F,U,Unom,Inom,Fnom,0)</f>
-        <v>12.658243058642954</v>
-      </c>
-      <c r="E46" s="10">
-        <f>[1]!motor_Eff_slip(B46,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.52684819904549696</v>
-      </c>
-      <c r="F46" s="10">
-        <f>[1]!motor_CosPhi_slip(B46,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.4715546473711214</v>
+      <c r="D46" s="9">
+        <f>[2]!motor_I_slip_A(B46,F,U,Unom,Inom,Fnom,0)</f>
+        <v>12.658243058642951</v>
+      </c>
+      <c r="E46" s="9">
+        <f>[2]!motor_Eff_slip(B46,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.52684819904549673</v>
+      </c>
+      <c r="F46" s="9">
+        <f>[2]!motor_CosPhi_slip(B46,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.47155464737112168</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <v>0.01</v>
       </c>
-      <c r="C47" s="10">
-        <f>[1]!motor_M_slip_Nm(B47,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C47" s="9">
+        <f>[2]!motor_M_slip_Nm(B47,F,U,Unom,Inom,Fnom,0)</f>
         <v>33.469311375598011</v>
       </c>
-      <c r="D47" s="10">
-        <f>[1]!motor_I_slip_A(B47,F,U,Unom,Inom,Fnom,0)</f>
-        <v>15.580673940592822</v>
-      </c>
-      <c r="E47" s="10">
-        <f>[1]!motor_Eff_slip(B47,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D47" s="9">
+        <f>[2]!motor_I_slip_A(B47,F,U,Unom,Inom,Fnom,0)</f>
+        <v>15.580673940592819</v>
+      </c>
+      <c r="E47" s="9">
+        <f>[2]!motor_Eff_slip(B47,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.70806633232072069</v>
       </c>
-      <c r="F47" s="10">
-        <f>[1]!motor_CosPhi_slip(B47,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.66032400326919916</v>
+      <c r="F47" s="9">
+        <f>[2]!motor_CosPhi_slip(B47,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.66032400326919938</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="C48" s="10">
-        <f>[1]!motor_M_slip_Nm(B48,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C48" s="9">
+        <f>[2]!motor_M_slip_Nm(B48,F,U,Unom,Inom,Fnom,0)</f>
         <v>51.099140989339361</v>
       </c>
-      <c r="D48" s="10">
-        <f>[1]!motor_I_slip_A(B48,F,U,Unom,Inom,Fnom,0)</f>
-        <v>19.108904169085012</v>
-      </c>
-      <c r="E48" s="10">
-        <f>[1]!motor_Eff_slip(B48,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.77189370310834182</v>
-      </c>
-      <c r="F48" s="10">
-        <f>[1]!motor_CosPhi_slip(B48,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.75403379383120028</v>
+      <c r="D48" s="9">
+        <f>[2]!motor_I_slip_A(B48,F,U,Unom,Inom,Fnom,0)</f>
+        <v>19.108904169085008</v>
+      </c>
+      <c r="E48" s="9">
+        <f>[2]!motor_Eff_slip(B48,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.77189370310834171</v>
+      </c>
+      <c r="F48" s="9">
+        <f>[2]!motor_CosPhi_slip(B48,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.75403379383120051</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <v>0.02</v>
       </c>
-      <c r="C49" s="10">
-        <f>[1]!motor_M_slip_Nm(B49,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C49" s="9">
+        <f>[2]!motor_M_slip_Nm(B49,F,U,Unom,Inom,Fnom,0)</f>
         <v>67.292847729864064</v>
       </c>
-      <c r="D49" s="10">
-        <f>[1]!motor_I_slip_A(B49,F,U,Unom,Inom,Fnom,0)</f>
-        <v>22.850398520048078</v>
-      </c>
-      <c r="E49" s="10">
-        <f>[1]!motor_Eff_slip(B49,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.8000472948165408</v>
-      </c>
-      <c r="F49" s="10">
-        <f>[1]!motor_CosPhi_slip(B49,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.80117974088426325</v>
+      <c r="D49" s="9">
+        <f>[2]!motor_I_slip_A(B49,F,U,Unom,Inom,Fnom,0)</f>
+        <v>22.850398520048074</v>
+      </c>
+      <c r="E49" s="9">
+        <f>[2]!motor_Eff_slip(B49,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.80004729481654069</v>
+      </c>
+      <c r="F49" s="9">
+        <f>[2]!motor_CosPhi_slip(B49,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.80117974088426347</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C50" s="10">
-        <f>[1]!motor_M_slip_Nm(B50,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C50" s="9">
+        <f>[2]!motor_M_slip_Nm(B50,F,U,Unom,Inom,Fnom,0)</f>
         <v>82.040306483768134</v>
       </c>
-      <c r="D50" s="10">
-        <f>[1]!motor_I_slip_A(B50,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D50" s="9">
+        <f>[2]!motor_I_slip_A(B50,F,U,Unom,Inom,Fnom,0)</f>
         <v>26.617210148186317</v>
       </c>
-      <c r="E50" s="10">
-        <f>[1]!motor_Eff_slip(B50,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E50" s="9">
+        <f>[2]!motor_Eff_slip(B50,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.81283464964630447</v>
       </c>
-      <c r="F50" s="10">
-        <f>[1]!motor_CosPhi_slip(B50,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F50" s="9">
+        <f>[2]!motor_CosPhi_slip(B50,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.82534024685309237</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <v>0.03</v>
       </c>
-      <c r="C51" s="10">
-        <f>[1]!motor_M_slip_Nm(B51,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C51" s="9">
+        <f>[2]!motor_M_slip_Nm(B51,F,U,Unom,Inom,Fnom,0)</f>
         <v>95.360720493781457</v>
       </c>
-      <c r="D51" s="10">
-        <f>[1]!motor_I_slip_A(B51,F,U,Unom,Inom,Fnom,0)</f>
-        <v>30.316409395893082</v>
-      </c>
-      <c r="E51" s="10">
-        <f>[1]!motor_Eff_slip(B51,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.81770882024484726</v>
-      </c>
-      <c r="F51" s="10">
-        <f>[1]!motor_CosPhi_slip(B51,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.83726621978521709</v>
+      <c r="D51" s="9">
+        <f>[2]!motor_I_slip_A(B51,F,U,Unom,Inom,Fnom,0)</f>
+        <v>30.316409395893078</v>
+      </c>
+      <c r="E51" s="9">
+        <f>[2]!motor_Eff_slip(B51,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.81770882024484715</v>
+      </c>
+      <c r="F51" s="9">
+        <f>[2]!motor_CosPhi_slip(B51,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.83726621978521731</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C52" s="10">
-        <f>[1]!motor_M_slip_Nm(B52,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C52" s="9">
+        <f>[2]!motor_M_slip_Nm(B52,F,U,Unom,Inom,Fnom,0)</f>
         <v>107.29680347575611</v>
       </c>
-      <c r="D52" s="10">
-        <f>[1]!motor_I_slip_A(B52,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D52" s="9">
+        <f>[2]!motor_I_slip_A(B52,F,U,Unom,Inom,Fnom,0)</f>
         <v>33.899878942604325</v>
       </c>
-      <c r="E52" s="10">
-        <f>[1]!motor_Eff_slip(B52,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.81804474736978694</v>
-      </c>
-      <c r="F52" s="10">
-        <f>[1]!motor_CosPhi_slip(B52,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.84213567888648388</v>
+      <c r="E52" s="9">
+        <f>[2]!motor_Eff_slip(B52,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.81804474736978683</v>
+      </c>
+      <c r="F52" s="9">
+        <f>[2]!motor_CosPhi_slip(B52,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.842135678886484</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="12">
+      <c r="B53" s="11">
         <v>0.04</v>
       </c>
-      <c r="C53" s="10">
-        <f>[1]!motor_M_slip_Nm(B53,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C53" s="9">
+        <f>[2]!motor_M_slip_Nm(B53,F,U,Unom,Inom,Fnom,0)</f>
         <v>117.90916456471876</v>
       </c>
-      <c r="D53" s="10">
-        <f>[1]!motor_I_slip_A(B53,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D53" s="9">
+        <f>[2]!motor_I_slip_A(B53,F,U,Unom,Inom,Fnom,0)</f>
         <v>37.342353809009268</v>
       </c>
-      <c r="E53" s="10">
-        <f>[1]!motor_Eff_slip(B53,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.81558936606877608</v>
-      </c>
-      <c r="F53" s="10">
-        <f>[1]!motor_CosPhi_slip(B53,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.8426453130130005</v>
+      <c r="E53" s="9">
+        <f>[2]!motor_Eff_slip(B53,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.81558936606877597</v>
+      </c>
+      <c r="F53" s="9">
+        <f>[2]!motor_CosPhi_slip(B53,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.84264531301300061</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="12">
+      <c r="B54" s="11">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C54" s="10">
-        <f>[1]!motor_M_slip_Nm(B54,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C54" s="9">
+        <f>[2]!motor_M_slip_Nm(B54,F,U,Unom,Inom,Fnom,0)</f>
         <v>127.27117804595468</v>
       </c>
-      <c r="D54" s="10">
-        <f>[1]!motor_I_slip_A(B54,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D54" s="9">
+        <f>[2]!motor_I_slip_A(B54,F,U,Unom,Inom,Fnom,0)</f>
         <v>40.631218864996519</v>
       </c>
-      <c r="E54" s="10">
-        <f>[1]!motor_Eff_slip(B54,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.81133500178274343</v>
-      </c>
-      <c r="F54" s="10">
-        <f>[1]!motor_CosPhi_slip(B54,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.84031185888949356</v>
+      <c r="E54" s="9">
+        <f>[2]!motor_Eff_slip(B54,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.81133500178274331</v>
+      </c>
+      <c r="F54" s="9">
+        <f>[2]!motor_CosPhi_slip(B54,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.84031185888949367</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="12">
+      <c r="B55" s="11">
         <v>0.05</v>
       </c>
-      <c r="C55" s="10">
-        <f>[1]!motor_M_slip_Nm(B55,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C55" s="9">
+        <f>[2]!motor_M_slip_Nm(B55,F,U,Unom,Inom,Fnom,0)</f>
         <v>135.4645038939818</v>
       </c>
-      <c r="D55" s="10">
-        <f>[1]!motor_I_slip_A(B55,F,U,Unom,Inom,Fnom,0)</f>
-        <v>43.761355939368642</v>
-      </c>
-      <c r="E55" s="10">
-        <f>[1]!motor_Eff_slip(B55,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D55" s="9">
+        <f>[2]!motor_I_slip_A(B55,F,U,Unom,Inom,Fnom,0)</f>
+        <v>43.761355939368634</v>
+      </c>
+      <c r="E55" s="9">
+        <f>[2]!motor_Eff_slip(B55,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.80588513975507914</v>
       </c>
-      <c r="F55" s="10">
-        <f>[1]!motor_CosPhi_slip(B55,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.83604967911963857</v>
+      <c r="F55" s="9">
+        <f>[2]!motor_CosPhi_slip(B55,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.83604967911963868</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="12">
+      <c r="B56" s="11">
         <v>5.5E-2</v>
       </c>
-      <c r="C56" s="10">
-        <f>[1]!motor_M_slip_Nm(B56,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C56" s="9">
+        <f>[2]!motor_M_slip_Nm(B56,F,U,Unom,Inom,Fnom,0)</f>
         <v>142.57533025220971</v>
       </c>
-      <c r="D56" s="10">
-        <f>[1]!motor_I_slip_A(B56,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D56" s="9">
+        <f>[2]!motor_I_slip_A(B56,F,U,Unom,Inom,Fnom,0)</f>
         <v>46.732314208683803</v>
       </c>
-      <c r="E56" s="10">
-        <f>[1]!motor_Eff_slip(B56,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E56" s="9">
+        <f>[2]!motor_Eff_slip(B56,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.79962636803307763</v>
       </c>
-      <c r="F56" s="10">
-        <f>[1]!motor_CosPhi_slip(B56,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F56" s="9">
+        <f>[2]!motor_CosPhi_slip(B56,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.83044425084784801</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="12">
+      <c r="B57" s="11">
         <v>0.06</v>
       </c>
-      <c r="C57" s="10">
-        <f>[1]!motor_M_slip_Nm(B57,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C57" s="9">
+        <f>[2]!motor_M_slip_Nm(B57,F,U,Unom,Inom,Fnom,0)</f>
         <v>148.69133834897011</v>
       </c>
-      <c r="D57" s="10">
-        <f>[1]!motor_I_slip_A(B57,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D57" s="9">
+        <f>[2]!motor_I_slip_A(B57,F,U,Unom,Inom,Fnom,0)</f>
         <v>49.546634523792854</v>
       </c>
-      <c r="E57" s="10">
-        <f>[1]!motor_Eff_slip(B57,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.79281659046305553</v>
-      </c>
-      <c r="F57" s="10">
-        <f>[1]!motor_CosPhi_slip(B57,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.82389007675276349</v>
+      <c r="E57" s="9">
+        <f>[2]!motor_Eff_slip(B57,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.79281659046305542</v>
+      </c>
+      <c r="F57" s="9">
+        <f>[2]!motor_CosPhi_slip(B57,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.8238900767527636</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="12">
+      <c r="B58" s="11">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="C58" s="10">
-        <f>[1]!motor_M_slip_Nm(B58,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C58" s="9">
+        <f>[2]!motor_M_slip_Nm(B58,F,U,Unom,Inom,Fnom,0)</f>
         <v>153.89934284417734</v>
       </c>
-      <c r="D58" s="10">
-        <f>[1]!motor_I_slip_A(B58,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D58" s="9">
+        <f>[2]!motor_I_slip_A(B58,F,U,Unom,Inom,Fnom,0)</f>
         <v>52.208792211885886</v>
       </c>
-      <c r="E58" s="10">
-        <f>[1]!motor_Eff_slip(B58,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E58" s="9">
+        <f>[2]!motor_Eff_slip(B58,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.78563350078966643</v>
       </c>
-      <c r="F58" s="10">
-        <f>[1]!motor_CosPhi_slip(B58,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F58" s="9">
+        <f>[2]!motor_CosPhi_slip(B58,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.81666438460969437</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="12">
+      <c r="B59" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C59" s="10">
-        <f>[1]!motor_M_slip_Nm(B59,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C59" s="9">
+        <f>[2]!motor_M_slip_Nm(B59,F,U,Unom,Inom,Fnom,0)</f>
         <v>158.28353270349413</v>
       </c>
-      <c r="D59" s="10">
-        <f>[1]!motor_I_slip_A(B59,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D59" s="9">
+        <f>[2]!motor_I_slip_A(B59,F,U,Unom,Inom,Fnom,0)</f>
         <v>54.724496287701392</v>
       </c>
-      <c r="E59" s="10">
-        <f>[1]!motor_Eff_slip(B59,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E59" s="9">
+        <f>[2]!motor_Eff_slip(B59,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.77820273931343931</v>
       </c>
-      <c r="F59" s="10">
-        <f>[1]!motor_CosPhi_slip(B59,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.80896866178506321</v>
+      <c r="F59" s="9">
+        <f>[2]!motor_CosPhi_slip(B59,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.80896866178506333</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="12">
+      <c r="B60" s="11">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="C60" s="10">
-        <f>[1]!motor_M_slip_Nm(B60,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C60" s="9">
+        <f>[2]!motor_M_slip_Nm(B60,F,U,Unom,Inom,Fnom,0)</f>
         <v>161.92422494645672</v>
       </c>
-      <c r="D60" s="10">
-        <f>[1]!motor_I_slip_A(B60,F,U,Unom,Inom,Fnom,0)</f>
-        <v>57.100208104966775</v>
-      </c>
-      <c r="E60" s="10">
-        <f>[1]!motor_Eff_slip(B60,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D60" s="9">
+        <f>[2]!motor_I_slip_A(B60,F,U,Unom,Inom,Fnom,0)</f>
+        <v>57.100208104966768</v>
+      </c>
+      <c r="E60" s="9">
+        <f>[2]!motor_Eff_slip(B60,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.77061501421513534</v>
       </c>
-      <c r="F60" s="10">
-        <f>[1]!motor_CosPhi_slip(B60,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.80095323717894307</v>
+      <c r="F60" s="9">
+        <f>[2]!motor_CosPhi_slip(B60,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.80095323717894329</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="12">
+      <c r="B61" s="11">
         <v>0.08</v>
       </c>
-      <c r="C61" s="10">
-        <f>[1]!motor_M_slip_Nm(B61,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C61" s="9">
+        <f>[2]!motor_M_slip_Nm(B61,F,U,Unom,Inom,Fnom,0)</f>
         <v>164.89704161249989</v>
       </c>
-      <c r="D61" s="10">
-        <f>[1]!motor_I_slip_A(B61,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D61" s="9">
+        <f>[2]!motor_I_slip_A(B61,F,U,Unom,Inom,Fnom,0)</f>
         <v>59.342803077305781</v>
       </c>
-      <c r="E61" s="10">
-        <f>[1]!motor_Eff_slip(B61,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E61" s="9">
+        <f>[2]!motor_Eff_slip(B61,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.76293692057202755</v>
       </c>
-      <c r="F61" s="10">
-        <f>[1]!motor_CosPhi_slip(B61,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F61" s="9">
+        <f>[2]!motor_CosPhi_slip(B61,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.79273250617933233</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="12">
+      <c r="B62" s="11">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="C62" s="10">
-        <f>[1]!motor_M_slip_Nm(B62,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C62" s="9">
+        <f>[2]!motor_M_slip_Nm(B62,F,U,Unom,Inom,Fnom,0)</f>
         <v>167.27242523202293</v>
       </c>
-      <c r="D62" s="10">
-        <f>[1]!motor_I_slip_A(B62,F,U,Unom,Inom,Fnom,0)</f>
-        <v>61.459330121624639</v>
-      </c>
-      <c r="E62" s="10">
-        <f>[1]!motor_Eff_slip(B62,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D62" s="9">
+        <f>[2]!motor_I_slip_A(B62,F,U,Unom,Inom,Fnom,0)</f>
+        <v>61.459330121624632</v>
+      </c>
+      <c r="E62" s="9">
+        <f>[2]!motor_Eff_slip(B62,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.75521800434134034</v>
       </c>
-      <c r="F62" s="10">
-        <f>[1]!motor_CosPhi_slip(B62,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.7843947671424456</v>
+      <c r="F62" s="9">
+        <f>[2]!motor_CosPhi_slip(B62,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.78439476714244571</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="12">
+      <c r="B63" s="11">
         <v>0.09</v>
       </c>
-      <c r="C63" s="10">
-        <f>[1]!motor_M_slip_Nm(B63,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C63" s="9">
+        <f>[2]!motor_M_slip_Nm(B63,F,U,Unom,Inom,Fnom,0)</f>
         <v>169.1154169848889</v>
       </c>
-      <c r="D63" s="10">
-        <f>[1]!motor_I_slip_A(B63,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D63" s="9">
+        <f>[2]!motor_I_slip_A(B63,F,U,Unom,Inom,Fnom,0)</f>
         <v>63.456840258488249</v>
       </c>
-      <c r="E63" s="10">
-        <f>[1]!motor_Eff_slip(B63,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E63" s="9">
+        <f>[2]!motor_Eff_slip(B63,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.74749550640661544</v>
       </c>
-      <c r="F63" s="10">
-        <f>[1]!motor_CosPhi_slip(B63,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F63" s="9">
+        <f>[2]!motor_CosPhi_slip(B63,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.77600882943078819</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="12">
+      <c r="B64" s="11">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="C64" s="10">
-        <f>[1]!motor_M_slip_Nm(B64,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C64" s="9">
+        <f>[2]!motor_M_slip_Nm(B64,F,U,Unom,Inom,Fnom,0)</f>
         <v>170.48563239593003</v>
       </c>
-      <c r="D64" s="10">
-        <f>[1]!motor_I_slip_A(B64,F,U,Unom,Inom,Fnom,0)</f>
-        <v>65.342265401046618</v>
-      </c>
-      <c r="E64" s="10">
-        <f>[1]!motor_Eff_slip(B64,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D64" s="9">
+        <f>[2]!motor_I_slip_A(B64,F,U,Unom,Inom,Fnom,0)</f>
+        <v>65.342265401046603</v>
+      </c>
+      <c r="E64" s="9">
+        <f>[2]!motor_Eff_slip(B64,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.73979762760377143</v>
       </c>
-      <c r="F64" s="10">
-        <f>[1]!motor_CosPhi_slip(B64,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.76762861337655997</v>
+      <c r="F64" s="9">
+        <f>[2]!motor_CosPhi_slip(B64,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.76762861337656019</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="12">
+      <c r="B65" s="11">
         <v>0.1</v>
       </c>
-      <c r="C65" s="10">
-        <f>[1]!motor_M_slip_Nm(B65,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C65" s="9">
+        <f>[2]!motor_M_slip_Nm(B65,F,U,Unom,Inom,Fnom,0)</f>
         <v>171.43738038508653</v>
       </c>
-      <c r="D65" s="10">
-        <f>[1]!motor_I_slip_A(B65,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D65" s="9">
+        <f>[2]!motor_I_slip_A(B65,F,U,Unom,Inom,Fnom,0)</f>
         <v>67.122334167734621</v>
       </c>
-      <c r="E65" s="10">
-        <f>[1]!motor_Eff_slip(B65,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E65" s="9">
+        <f>[2]!motor_Eff_slip(B65,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.73214582459047806</v>
       </c>
-      <c r="F65" s="10">
-        <f>[1]!motor_CosPhi_slip(B65,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F65" s="9">
+        <f>[2]!motor_CosPhi_slip(B65,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.75929645590345696</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="12">
+      <c r="B66" s="11">
         <v>0.11</v>
       </c>
-      <c r="C66" s="10">
-        <f>[1]!motor_M_slip_Nm(B66,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C66" s="9">
+        <f>[2]!motor_M_slip_Nm(B66,F,U,Unom,Inom,Fnom,0)</f>
         <v>172.2775532214425</v>
       </c>
-      <c r="D66" s="10">
-        <f>[1]!motor_I_slip_A(B66,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D66" s="9">
+        <f>[2]!motor_I_slip_A(B66,F,U,Unom,Inom,Fnom,0)</f>
         <v>70.39198142334341</v>
       </c>
-      <c r="E66" s="10">
-        <f>[1]!motor_Eff_slip(B66,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E66" s="9">
+        <f>[2]!motor_Eff_slip(B66,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.71704197692839844</v>
       </c>
-      <c r="F66" s="10">
-        <f>[1]!motor_CosPhi_slip(B66,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F66" s="9">
+        <f>[2]!motor_CosPhi_slip(B66,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.7429018084556287</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="12">
+      <c r="B67" s="11">
         <v>0.12</v>
       </c>
-      <c r="C67" s="10">
-        <f>[1]!motor_M_slip_Nm(B67,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C67" s="9">
+        <f>[2]!motor_M_slip_Nm(B67,F,U,Unom,Inom,Fnom,0)</f>
         <v>171.97399890335438</v>
       </c>
-      <c r="D67" s="10">
-        <f>[1]!motor_I_slip_A(B67,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D67" s="9">
+        <f>[2]!motor_I_slip_A(B67,F,U,Unom,Inom,Fnom,0)</f>
         <v>73.313867526746222</v>
       </c>
-      <c r="E67" s="10">
-        <f>[1]!motor_Eff_slip(B67,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E67" s="9">
+        <f>[2]!motor_Eff_slip(B67,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.70227312586798762</v>
       </c>
-      <c r="F67" s="10">
-        <f>[1]!motor_CosPhi_slip(B67,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F67" s="9">
+        <f>[2]!motor_CosPhi_slip(B67,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.72701120009437126</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="12">
+      <c r="B68" s="11">
         <v>0.13</v>
       </c>
-      <c r="C68" s="10">
-        <f>[1]!motor_M_slip_Nm(B68,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C68" s="9">
+        <f>[2]!motor_M_slip_Nm(B68,F,U,Unom,Inom,Fnom,0)</f>
         <v>170.79853869207599</v>
       </c>
-      <c r="D68" s="10">
-        <f>[1]!motor_I_slip_A(B68,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D68" s="9">
+        <f>[2]!motor_I_slip_A(B68,F,U,Unom,Inom,Fnom,0)</f>
         <v>75.930930706812362</v>
       </c>
-      <c r="E68" s="10">
-        <f>[1]!motor_Eff_slip(B68,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E68" s="9">
+        <f>[2]!motor_Eff_slip(B68,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.68788956433912929</v>
       </c>
-      <c r="F68" s="10">
-        <f>[1]!motor_CosPhi_slip(B68,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F68" s="9">
+        <f>[2]!motor_CosPhi_slip(B68,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.71173315598790088</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="12">
+      <c r="B69" s="11">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C69" s="10">
-        <f>[1]!motor_M_slip_Nm(B69,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C69" s="9">
+        <f>[2]!motor_M_slip_Nm(B69,F,U,Unom,Inom,Fnom,0)</f>
         <v>168.96751405381158</v>
       </c>
-      <c r="D69" s="10">
-        <f>[1]!motor_I_slip_A(B69,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D69" s="9">
+        <f>[2]!motor_I_slip_A(B69,F,U,Unom,Inom,Fnom,0)</f>
         <v>78.280994946846732</v>
       </c>
-      <c r="E69" s="10">
-        <f>[1]!motor_Eff_slip(B69,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E69" s="9">
+        <f>[2]!motor_Eff_slip(B69,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.67391757795322416</v>
       </c>
-      <c r="F69" s="10">
-        <f>[1]!motor_CosPhi_slip(B69,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.69712488316222188</v>
+      <c r="F69" s="9">
+        <f>[2]!motor_CosPhi_slip(B69,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.69712488316222199</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="12">
+      <c r="B70" s="11">
         <v>0.15</v>
       </c>
-      <c r="C70" s="10">
-        <f>[1]!motor_M_slip_Nm(B70,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C70" s="9">
+        <f>[2]!motor_M_slip_Nm(B70,F,U,Unom,Inom,Fnom,0)</f>
         <v>166.65179935515502</v>
       </c>
-      <c r="D70" s="10">
-        <f>[1]!motor_I_slip_A(B70,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D70" s="9">
+        <f>[2]!motor_I_slip_A(B70,F,U,Unom,Inom,Fnom,0)</f>
         <v>80.397095298801602</v>
       </c>
-      <c r="E70" s="10">
-        <f>[1]!motor_Eff_slip(B70,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E70" s="9">
+        <f>[2]!motor_Eff_slip(B70,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.66036829562574306</v>
       </c>
-      <c r="F70" s="10">
-        <f>[1]!motor_CosPhi_slip(B70,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F70" s="9">
+        <f>[2]!motor_CosPhi_slip(B70,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.68320954590435401</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="12">
+      <c r="B71" s="11">
         <v>0.16</v>
       </c>
-      <c r="C71" s="10">
-        <f>[1]!motor_M_slip_Nm(B71,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C71" s="9">
+        <f>[2]!motor_M_slip_Nm(B71,F,U,Unom,Inom,Fnom,0)</f>
         <v>163.98555490020314</v>
       </c>
-      <c r="D71" s="10">
-        <f>[1]!motor_I_slip_A(B71,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D71" s="9">
+        <f>[2]!motor_I_slip_A(B71,F,U,Unom,Inom,Fnom,0)</f>
         <v>82.307934401329533</v>
       </c>
-      <c r="E71" s="10">
-        <f>[1]!motor_Eff_slip(B71,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.64724314942688654</v>
-      </c>
-      <c r="F71" s="10">
-        <f>[1]!motor_CosPhi_slip(B71,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.66998783907073778</v>
+      <c r="E71" s="9">
+        <f>[2]!motor_Eff_slip(B71,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.64724314942688643</v>
+      </c>
+      <c r="F71" s="9">
+        <f>[2]!motor_CosPhi_slip(B71,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.66998783907073789</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="12">
+      <c r="B72" s="11">
         <v>0.17</v>
       </c>
-      <c r="C72" s="10">
-        <f>[1]!motor_M_slip_Nm(B72,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C72" s="9">
+        <f>[2]!motor_M_slip_Nm(B72,F,U,Unom,Inom,Fnom,0)</f>
         <v>161.07359466188197</v>
       </c>
-      <c r="D72" s="10">
-        <f>[1]!motor_I_slip_A(B72,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D72" s="9">
+        <f>[2]!motor_I_slip_A(B72,F,U,Unom,Inom,Fnom,0)</f>
         <v>84.038378446784435</v>
       </c>
-      <c r="E72" s="10">
-        <f>[1]!motor_Eff_slip(B72,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.63453734025740038</v>
-      </c>
-      <c r="F72" s="10">
-        <f>[1]!motor_CosPhi_slip(B72,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.65744585932670774</v>
+      <c r="E72" s="9">
+        <f>[2]!motor_Eff_slip(B72,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.63453734025740016</v>
+      </c>
+      <c r="F72" s="9">
+        <f>[2]!motor_CosPhi_slip(B72,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.65744585932670796</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="12">
+      <c r="B73" s="11">
         <v>0.18</v>
       </c>
-      <c r="C73" s="10">
-        <f>[1]!motor_M_slip_Nm(B73,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C73" s="9">
+        <f>[2]!motor_M_slip_Nm(B73,F,U,Unom,Inom,Fnom,0)</f>
         <v>157.99743871392505</v>
       </c>
-      <c r="D73" s="10">
-        <f>[1]!motor_I_slip_A(B73,F,U,Unom,Inom,Fnom,0)</f>
-        <v>85.60994254124418</v>
-      </c>
-      <c r="E73" s="10">
-        <f>[1]!motor_Eff_slip(B73,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.62224208879865228</v>
-      </c>
-      <c r="F73" s="10">
-        <f>[1]!motor_CosPhi_slip(B73,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.64556049930661463</v>
+      <c r="D73" s="9">
+        <f>[2]!motor_I_slip_A(B73,F,U,Unom,Inom,Fnom,0)</f>
+        <v>85.609942541244166</v>
+      </c>
+      <c r="E73" s="9">
+        <f>[2]!motor_Eff_slip(B73,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.62224208879865217</v>
+      </c>
+      <c r="F73" s="9">
+        <f>[2]!motor_CosPhi_slip(B73,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.64556049930661485</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="12">
+      <c r="B74" s="11">
         <v>0.19</v>
       </c>
-      <c r="C74" s="10">
-        <f>[1]!motor_M_slip_Nm(B74,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C74" s="9">
+        <f>[2]!motor_M_slip_Nm(B74,F,U,Unom,Inom,Fnom,0)</f>
         <v>154.82020557563558</v>
       </c>
-      <c r="D74" s="10">
-        <f>[1]!motor_I_slip_A(B74,F,U,Unom,Inom,Fnom,0)</f>
-        <v>87.041240244931771</v>
-      </c>
-      <c r="E74" s="10">
-        <f>[1]!motor_Eff_slip(B74,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D74" s="9">
+        <f>[2]!motor_I_slip_A(B74,F,U,Unom,Inom,Fnom,0)</f>
+        <v>87.041240244931757</v>
+      </c>
+      <c r="E74" s="9">
+        <f>[2]!motor_Eff_slip(B74,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.61034612421854972</v>
       </c>
-      <c r="F74" s="10">
-        <f>[1]!motor_CosPhi_slip(B74,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.634303151913713</v>
+      <c r="F74" s="9">
+        <f>[2]!motor_CosPhi_slip(B74,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.63430315191371311</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="12">
+      <c r="B75" s="11">
         <v>0.2</v>
       </c>
-      <c r="C75" s="10">
-        <f>[1]!motor_M_slip_Nm(B75,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C75" s="9">
+        <f>[2]!motor_M_slip_Nm(B75,F,U,Unom,Inom,Fnom,0)</f>
         <v>151.5905243446586</v>
       </c>
-      <c r="D75" s="10">
-        <f>[1]!motor_I_slip_A(B75,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D75" s="9">
+        <f>[2]!motor_I_slip_A(B75,F,U,Unom,Inom,Fnom,0)</f>
         <v>88.348386583392369</v>
       </c>
-      <c r="E75" s="10">
-        <f>[1]!motor_Eff_slip(B75,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E75" s="9">
+        <f>[2]!motor_Eff_slip(B75,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.59883668234682952</v>
       </c>
-      <c r="F75" s="10">
-        <f>[1]!motor_CosPhi_slip(B75,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F75" s="9">
+        <f>[2]!motor_CosPhi_slip(B75,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.6236422476143606</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="12">
+      <c r="B76" s="11">
         <v>0.3</v>
       </c>
-      <c r="C76" s="10">
-        <f>[1]!motor_M_slip_Nm(B76,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C76" s="9">
+        <f>[2]!motor_M_slip_Nm(B76,F,U,Unom,Inom,Fnom,0)</f>
         <v>121.39425877897952</v>
       </c>
-      <c r="D76" s="10">
-        <f>[1]!motor_I_slip_A(B76,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D76" s="9">
+        <f>[2]!motor_I_slip_A(B76,F,U,Unom,Inom,Fnom,0)</f>
         <v>96.932414318470379</v>
       </c>
-      <c r="E76" s="10">
-        <f>[1]!motor_Eff_slip(B76,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E76" s="9">
+        <f>[2]!motor_Eff_slip(B76,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.50201047425271972</v>
       </c>
-      <c r="F76" s="10">
-        <f>[1]!motor_CosPhi_slip(B76,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F76" s="9">
+        <f>[2]!motor_CosPhi_slip(B76,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.54298374744525379</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="12">
+      <c r="B77" s="11">
         <v>0.4</v>
       </c>
-      <c r="C77" s="10">
-        <f>[1]!motor_M_slip_Nm(B77,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C77" s="9">
+        <f>[2]!motor_M_slip_Nm(B77,F,U,Unom,Inom,Fnom,0)</f>
         <v>98.693404211183037</v>
       </c>
-      <c r="D77" s="10">
-        <f>[1]!motor_I_slip_A(B77,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D77" s="9">
+        <f>[2]!motor_I_slip_A(B77,F,U,Unom,Inom,Fnom,0)</f>
         <v>101.28739291498862</v>
       </c>
-      <c r="E77" s="10">
-        <f>[1]!motor_Eff_slip(B77,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.43021384795266604</v>
-      </c>
-      <c r="F77" s="10">
-        <f>[1]!motor_CosPhi_slip(B77,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.49296812876560925</v>
+      <c r="E77" s="9">
+        <f>[2]!motor_Eff_slip(B77,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.43021384795266587</v>
+      </c>
+      <c r="F77" s="9">
+        <f>[2]!motor_CosPhi_slip(B77,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.49296812876560941</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="12">
+      <c r="B78" s="11">
         <v>0.5</v>
       </c>
-      <c r="C78" s="10">
-        <f>[1]!motor_M_slip_Nm(B78,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C78" s="9">
+        <f>[2]!motor_M_slip_Nm(B78,F,U,Unom,Inom,Fnom,0)</f>
         <v>82.242410244955451</v>
       </c>
-      <c r="D78" s="10">
-        <f>[1]!motor_I_slip_A(B78,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D78" s="9">
+        <f>[2]!motor_I_slip_A(B78,F,U,Unom,Inom,Fnom,0)</f>
         <v>103.85439788171455</v>
       </c>
-      <c r="E78" s="10">
-        <f>[1]!motor_Eff_slip(B78,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E78" s="9">
+        <f>[2]!motor_Eff_slip(B78,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.37510554541135332</v>
       </c>
-      <c r="F78" s="10">
-        <f>[1]!motor_CosPhi_slip(B78,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F78" s="9">
+        <f>[2]!motor_CosPhi_slip(B78,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.45950256934074796</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="12">
+      <c r="B79" s="11">
         <v>0.6</v>
       </c>
-      <c r="C79" s="10">
-        <f>[1]!motor_M_slip_Nm(B79,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C79" s="9">
+        <f>[2]!motor_M_slip_Nm(B79,F,U,Unom,Inom,Fnom,0)</f>
         <v>70.033857316114492</v>
       </c>
-      <c r="D79" s="10">
-        <f>[1]!motor_I_slip_A(B79,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D79" s="9">
+        <f>[2]!motor_I_slip_A(B79,F,U,Unom,Inom,Fnom,0)</f>
         <v>105.52630723397222</v>
       </c>
-      <c r="E79" s="10">
-        <f>[1]!motor_Eff_slip(B79,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E79" s="9">
+        <f>[2]!motor_Eff_slip(B79,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.33153937066369921</v>
       </c>
-      <c r="F79" s="10">
-        <f>[1]!motor_CosPhi_slip(B79,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F79" s="9">
+        <f>[2]!motor_CosPhi_slip(B79,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.43569511319147636</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="12">
+      <c r="B80" s="11">
         <v>0.7</v>
       </c>
-      <c r="C80" s="10">
-        <f>[1]!motor_M_slip_Nm(B80,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C80" s="9">
+        <f>[2]!motor_M_slip_Nm(B80,F,U,Unom,Inom,Fnom,0)</f>
         <v>60.695549543055684</v>
       </c>
-      <c r="D80" s="10">
-        <f>[1]!motor_I_slip_A(B80,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D80" s="9">
+        <f>[2]!motor_I_slip_A(B80,F,U,Unom,Inom,Fnom,0)</f>
         <v>106.69394848523537</v>
       </c>
-      <c r="E80" s="10">
-        <f>[1]!motor_Eff_slip(B80,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E80" s="9">
+        <f>[2]!motor_Eff_slip(B80,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.29625607905792939</v>
       </c>
-      <c r="F80" s="10">
-        <f>[1]!motor_CosPhi_slip(B80,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F80" s="9">
+        <f>[2]!motor_CosPhi_slip(B80,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.41794610383771225</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="12">
+      <c r="B81" s="11">
         <v>0.8</v>
       </c>
-      <c r="C81" s="10">
-        <f>[1]!motor_M_slip_Nm(B81,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C81" s="9">
+        <f>[2]!motor_M_slip_Nm(B81,F,U,Unom,Inom,Fnom,0)</f>
         <v>53.353159750456562</v>
       </c>
-      <c r="D81" s="10">
-        <f>[1]!motor_I_slip_A(B81,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D81" s="9">
+        <f>[2]!motor_I_slip_A(B81,F,U,Unom,Inom,Fnom,0)</f>
         <v>107.55215596677904</v>
       </c>
-      <c r="E81" s="10">
-        <f>[1]!motor_Eff_slip(B81,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.26710820429027682</v>
-      </c>
-      <c r="F81" s="10">
-        <f>[1]!motor_CosPhi_slip(B81,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.40422604085944636</v>
+      <c r="E81" s="9">
+        <f>[2]!motor_Eff_slip(B81,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.26710820429027687</v>
+      </c>
+      <c r="F81" s="9">
+        <f>[2]!motor_CosPhi_slip(B81,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.4042260408594463</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="12">
+      <c r="B82" s="11">
         <v>0.9</v>
       </c>
-      <c r="C82" s="10">
-        <f>[1]!motor_M_slip_Nm(B82,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C82" s="9">
+        <f>[2]!motor_M_slip_Nm(B82,F,U,Unom,Inom,Fnom,0)</f>
         <v>47.442508108093918</v>
       </c>
-      <c r="D82" s="10">
-        <f>[1]!motor_I_slip_A(B82,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D82" s="9">
+        <f>[2]!motor_I_slip_A(B82,F,U,Unom,Inom,Fnom,0)</f>
         <v>108.20789723832284</v>
       </c>
-      <c r="E82" s="10">
-        <f>[1]!motor_Eff_slip(B82,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="E82" s="9">
+        <f>[2]!motor_Eff_slip(B82,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.24262793328636234</v>
       </c>
-      <c r="F82" s="10">
-        <f>[1]!motor_CosPhi_slip(B82,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="F82" s="9">
+        <f>[2]!motor_CosPhi_slip(B82,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.39331306714419811</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="12">
+      <c r="B83" s="11">
         <v>1</v>
       </c>
-      <c r="C83" s="10">
-        <f>[1]!motor_M_slip_Nm(B83,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="C83" s="9">
+        <f>[2]!motor_M_slip_Nm(B83,F,U,Unom,Inom,Fnom,0)</f>
         <v>42.588868474732728</v>
       </c>
-      <c r="D83" s="10">
-        <f>[1]!motor_I_slip_A(B83,F,U,Unom,Inom,Fnom,0)</f>
-        <v>108.72440135783684</v>
-      </c>
-      <c r="E83" s="10">
-        <f>[1]!motor_Eff_slip(B83,F,U,Unom,Inom,Fnom,0)</f>
+      <c r="D83" s="9">
+        <f>[2]!motor_I_slip_A(B83,F,U,Unom,Inom,Fnom,0)</f>
+        <v>108.72440135783683</v>
+      </c>
+      <c r="E83" s="9">
+        <f>[2]!motor_Eff_slip(B83,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.22177952311141455</v>
       </c>
-      <c r="F83" s="10">
-        <f>[1]!motor_CosPhi_slip(B83,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.38443075331109733</v>
+      <c r="F83" s="9">
+        <f>[2]!motor_CosPhi_slip(B83,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.38443075331109738</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8" t="str">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7" t="str">
         <f>"Загрузка "&amp;C89</f>
         <v>Загрузка 0.6</v>
       </c>
-      <c r="D88" s="8" t="str">
-        <f t="shared" ref="D88:E88" si="0">"Загрузка "&amp;D89</f>
+      <c r="D88" s="7" t="str">
+        <f t="shared" ref="D88:E88" si="1">"Загрузка "&amp;D89</f>
         <v>Загрузка 0.8</v>
       </c>
-      <c r="E88" s="8" t="str">
-        <f t="shared" si="0"/>
+      <c r="E88" s="7" t="str">
+        <f t="shared" si="1"/>
         <v>Загрузка 1</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7">
         <v>0.6</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="7">
         <v>0.8</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8" t="s">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C90" s="12">
+      <c r="C90" s="11">
         <f>C89*Pnom_</f>
-        <v>21.49710611102806</v>
-      </c>
-      <c r="D90" s="12">
+        <v>24.084948287852399</v>
+      </c>
+      <c r="D90" s="11">
         <f>D89*Pnom_</f>
-        <v>28.662808148037414</v>
-      </c>
-      <c r="E90" s="12">
+        <v>32.113264383803198</v>
+      </c>
+      <c r="E90" s="11">
         <f>E89*Pnom_</f>
-        <v>35.828510185046767</v>
+        <v>40.141580479753998</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="8">
+      <c r="A91" s="7">
         <v>0.8</v>
       </c>
-      <c r="B91" s="8">
-        <f>Unom*A91</f>
+      <c r="B91" s="7">
+        <f t="shared" ref="B91:B99" si="2">Unom*A91</f>
         <v>800</v>
       </c>
-      <c r="C91" s="10">
-        <f>[1]!motor_Eff_d(C$90,F,$B91,Unom,Inom,Fnom,ID)</f>
-        <v>0.80071502698360797</v>
-      </c>
-      <c r="D91" s="10">
-        <f>[1]!motor_Eff_d(D$90,F,$B91,Unom,Inom,Fnom,ID)</f>
-        <v>0.80162428490550897</v>
-      </c>
-      <c r="E91" s="10">
-        <f>[1]!motor_Eff_d(E$90,F,$B91,Unom,Inom,Fnom,ID)</f>
-        <v>0.7827905299155945</v>
+      <c r="C91" s="9">
+        <f>[2]!motor_Eff_d(C$90,F,$B91,Unom,Inom,Fnom,ID)</f>
+        <v>0.79186525033863675</v>
+      </c>
+      <c r="D91" s="9">
+        <f>[2]!motor_Eff_d(D$90,F,$B91,Unom,Inom,Fnom,ID)</f>
+        <v>0.78613328968537366</v>
+      </c>
+      <c r="E91" s="9">
+        <f>[2]!motor_Eff_d(E$90,F,$B91,Unom,Inom,Fnom,ID)</f>
+        <v>0.76400104670987234</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="8">
+      <c r="A92" s="7">
         <v>0.85</v>
       </c>
-      <c r="B92" s="8">
-        <f>Unom*A92</f>
+      <c r="B92" s="7">
+        <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="C92" s="10">
-        <f>[1]!motor_Eff_d(C$90,F,$B92,Unom,Inom,Fnom,ID)</f>
-        <v>0.8006880378076715</v>
-      </c>
-      <c r="D92" s="10">
-        <f>[1]!motor_Eff_d(D$90,F,$B92,Unom,Inom,Fnom,ID)</f>
-        <v>0.80925370774334859</v>
-      </c>
-      <c r="E92" s="10">
-        <f>[1]!motor_Eff_d(E$90,F,$B92,Unom,Inom,Fnom,ID)</f>
-        <v>0.80010953836578724</v>
+      <c r="C92" s="9">
+        <f>[2]!motor_Eff_d(C$90,F,$B92,Unom,Inom,Fnom,ID)</f>
+        <v>0.80559955930273786</v>
+      </c>
+      <c r="D92" s="9">
+        <f>[2]!motor_Eff_d(D$90,F,$B92,Unom,Inom,Fnom,ID)</f>
+        <v>0.79976818209022016</v>
+      </c>
+      <c r="E92" s="9">
+        <f>[2]!motor_Eff_d(E$90,F,$B92,Unom,Inom,Fnom,ID)</f>
+        <v>0.77725207195681023</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="8">
+      <c r="A93" s="7">
         <v>0.9</v>
       </c>
-      <c r="B93" s="8">
-        <f>Unom*A93</f>
+      <c r="B93" s="7">
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="C93" s="10">
-        <f>[1]!motor_Eff_d(C$90,F,$B93,Unom,Inom,Fnom,ID)</f>
-        <v>0.79764377235663741</v>
-      </c>
-      <c r="D93" s="10">
-        <f>[1]!motor_Eff_d(D$90,F,$B93,Unom,Inom,Fnom,ID)</f>
-        <v>0.81219405354680674</v>
-      </c>
-      <c r="E93" s="10">
-        <f>[1]!motor_Eff_d(E$90,F,$B93,Unom,Inom,Fnom,ID)</f>
-        <v>0.81090754273073673</v>
+      <c r="C93" s="9">
+        <f>[2]!motor_Eff_d(C$90,F,$B93,Unom,Inom,Fnom,ID)</f>
+        <v>0.81504701819177705</v>
+      </c>
+      <c r="D93" s="9">
+        <f>[2]!motor_Eff_d(D$90,F,$B93,Unom,Inom,Fnom,ID)</f>
+        <v>0.80914725502268137</v>
+      </c>
+      <c r="E93" s="9">
+        <f>[2]!motor_Eff_d(E$90,F,$B93,Unom,Inom,Fnom,ID)</f>
+        <v>0.78636709307547625</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="8">
+      <c r="A94" s="7">
         <v>0.95</v>
       </c>
-      <c r="B94" s="8">
-        <f>Unom*A94</f>
+      <c r="B94" s="7">
+        <f t="shared" si="2"/>
         <v>950</v>
       </c>
-      <c r="C94" s="10">
-        <f>[1]!motor_Eff_d(C$90,F,$B94,Unom,Inom,Fnom,ID)</f>
-        <v>0.7921393592023307</v>
-      </c>
-      <c r="D94" s="10">
-        <f>[1]!motor_Eff_d(D$90,F,$B94,Unom,Inom,Fnom,ID)</f>
-        <v>0.81177353400806496</v>
-      </c>
-      <c r="E94" s="10">
-        <f>[1]!motor_Eff_d(E$90,F,$B94,Unom,Inom,Fnom,ID)</f>
-        <v>0.81614394607211949</v>
+      <c r="C94" s="9">
+        <f>[2]!motor_Eff_d(C$90,F,$B94,Unom,Inom,Fnom,ID)</f>
+        <v>0.82020762700575456</v>
+      </c>
+      <c r="D94" s="9">
+        <f>[2]!motor_Eff_d(D$90,F,$B94,Unom,Inom,Fnom,ID)</f>
+        <v>0.81427050848275739</v>
+      </c>
+      <c r="E94" s="9">
+        <f>[2]!motor_Eff_d(E$90,F,$B94,Unom,Inom,Fnom,ID)</f>
+        <v>0.79134611006587063</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="8">
+      <c r="A95" s="7">
         <v>1</v>
       </c>
-      <c r="B95" s="8">
-        <f>Unom*A95</f>
+      <c r="B95" s="7">
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
-      <c r="C95" s="10">
-        <f>[1]!motor_Eff_d(C$90,F,$B95,Unom,Inom,Fnom,ID)</f>
-        <v>0.78443681726415204</v>
-      </c>
-      <c r="D95" s="10">
-        <f>[1]!motor_Eff_d(D$90,F,$B95,Unom,Inom,Fnom,ID)</f>
-        <v>0.80874250477175702</v>
-      </c>
-      <c r="E95" s="10">
-        <f>[1]!motor_Eff_d(E$90,F,$B95,Unom,Inom,Fnom,ID)</f>
-        <v>0.81765554424805809</v>
+      <c r="C95" s="9">
+        <f>[2]!motor_Eff_d(C$90,F,$B95,Unom,Inom,Fnom,ID)</f>
+        <v>0.82107835186016009</v>
+      </c>
+      <c r="D95" s="9">
+        <f>[2]!motor_Eff_d(D$90,F,$B95,Unom,Inom,Fnom,ID)</f>
+        <v>0.81513493054688002</v>
+      </c>
+      <c r="E95" s="9">
+        <f>[2]!motor_Eff_d(E$90,F,$B95,Unom,Inom,Fnom,ID)</f>
+        <v>0.79218619579999983</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="8">
+      <c r="A96" s="7">
         <v>1.05</v>
       </c>
-      <c r="B96" s="8">
-        <f>Unom*A96</f>
+      <c r="B96" s="7">
+        <f t="shared" si="2"/>
         <v>1050</v>
       </c>
-      <c r="C96" s="10">
-        <f>[1]!motor_Eff_d(C$90,F,$B96,Unom,Inom,Fnom,ID)</f>
-        <v>0.77504952576125152</v>
-      </c>
-      <c r="D96" s="10">
-        <f>[1]!motor_Eff_d(D$90,F,$B96,Unom,Inom,Fnom,ID)</f>
-        <v>0.80347342092980911</v>
-      </c>
-      <c r="E96" s="10">
-        <f>[1]!motor_Eff_d(E$90,F,$B96,Unom,Inom,Fnom,ID)</f>
-        <v>0.81635647389300026</v>
+      <c r="C96" s="9">
+        <f>[2]!motor_Eff_d(C$90,F,$B96,Unom,Inom,Fnom,ID)</f>
+        <v>0.81766829440852362</v>
+      </c>
+      <c r="D96" s="9">
+        <f>[2]!motor_Eff_d(D$90,F,$B96,Unom,Inom,Fnom,ID)</f>
+        <v>0.8117495569857538</v>
+      </c>
+      <c r="E96" s="9">
+        <f>[2]!motor_Eff_d(E$90,F,$B96,Unom,Inom,Fnom,ID)</f>
+        <v>0.78889613166184391</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="8">
+      <c r="A97" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B97" s="8">
-        <f>Unom*A97</f>
+      <c r="B97" s="7">
+        <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="C97" s="10">
-        <f>[1]!motor_Eff_d(C$90,F,$B97,Unom,Inom,Fnom,ID)</f>
-        <v>0.7638942599984907</v>
-      </c>
-      <c r="D97" s="10">
-        <f>[1]!motor_Eff_d(D$90,F,$B97,Unom,Inom,Fnom,ID)</f>
-        <v>0.79634007265630546</v>
-      </c>
-      <c r="E97" s="10">
-        <f>[1]!motor_Eff_d(E$90,F,$B97,Unom,Inom,Fnom,ID)</f>
-        <v>0.81281216838584269</v>
+      <c r="C97" s="9">
+        <f>[2]!motor_Eff_d(C$90,F,$B97,Unom,Inom,Fnom,ID)</f>
+        <v>0.80996835299731518</v>
+      </c>
+      <c r="D97" s="9">
+        <f>[2]!motor_Eff_d(D$90,F,$B97,Unom,Inom,Fnom,ID)</f>
+        <v>0.80410535202867384</v>
+      </c>
+      <c r="E97" s="9">
+        <f>[2]!motor_Eff_d(E$90,F,$B97,Unom,Inom,Fnom,ID)</f>
+        <v>0.7814671362674227</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="8">
+      <c r="A98" s="7">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B98" s="8">
-        <f>Unom*A98</f>
+      <c r="B98" s="7">
+        <f t="shared" si="2"/>
         <v>1150</v>
       </c>
-      <c r="C98" s="10">
-        <f>[1]!motor_Eff_d(C$90,F,$B98,Unom,Inom,Fnom,ID)</f>
-        <v>0.75128810084915187</v>
-      </c>
-      <c r="D98" s="10">
-        <f>[1]!motor_Eff_d(D$90,F,$B98,Unom,Inom,Fnom,ID)</f>
-        <v>0.78758686640541309</v>
-      </c>
-      <c r="E98" s="10">
-        <f>[1]!motor_Eff_d(E$90,F,$B98,Unom,Inom,Fnom,ID)</f>
-        <v>0.80733596164843802</v>
+      <c r="C98" s="9">
+        <f>[2]!motor_Eff_d(C$90,F,$B98,Unom,Inom,Fnom,ID)</f>
+        <v>0.79798156151104527</v>
+      </c>
+      <c r="D98" s="9">
+        <f>[2]!motor_Eff_d(D$90,F,$B98,Unom,Inom,Fnom,ID)</f>
+        <v>0.79220532759920903</v>
+      </c>
+      <c r="E98" s="9">
+        <f>[2]!motor_Eff_d(E$90,F,$B98,Unom,Inom,Fnom,ID)</f>
+        <v>0.76990213674472996</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
+      <c r="A99" s="7">
         <v>1.2</v>
       </c>
-      <c r="B99" s="8">
-        <f>Unom*A99</f>
+      <c r="B99" s="7">
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="C99" s="10">
-        <f>[1]!motor_Eff_d(C$90,F,$B99,Unom,Inom,Fnom,ID)</f>
-        <v>0.73748936207564486</v>
-      </c>
-      <c r="D99" s="10">
-        <f>[1]!motor_Eff_d(D$90,F,$B99,Unom,Inom,Fnom,ID)</f>
-        <v>0.77740387892022922</v>
-      </c>
-      <c r="E99" s="10">
-        <f>[1]!motor_Eff_d(E$90,F,$B99,Unom,Inom,Fnom,ID)</f>
-        <v>0.80026503566440754</v>
+      <c r="C99" s="9">
+        <f>[2]!motor_Eff_d(C$90,F,$B99,Unom,Inom,Fnom,ID)</f>
+        <v>0.781707919949713</v>
+      </c>
+      <c r="D99" s="9">
+        <f>[2]!motor_Eff_d(D$90,F,$B99,Unom,Inom,Fnom,ID)</f>
+        <v>0.7760494836973586</v>
+      </c>
+      <c r="E99" s="9">
+        <f>[2]!motor_Eff_d(E$90,F,$B99,Unom,Inom,Fnom,ID)</f>
+        <v>0.75420113309376513</v>
       </c>
     </row>
   </sheetData>

--- a/excercises/excercises/80.Motor.xlsx
+++ b/excercises/excercises/80.Motor.xlsx
@@ -5,19 +5,18 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olegk\Documents\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072B373A-8200-408C-9259-1C37AC69C5A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387AA0D5-F97D-4D8B-8F37-C2BD63F46ACA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D87573BE-CE25-4BB0-B737-F86120CA6188}"/>
+    <workbookView xWindow="12945" yWindow="2910" windowWidth="21930" windowHeight="17160" xr2:uid="{D87573BE-CE25-4BB0-B737-F86120CA6188}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="F">Лист1!$H$6</definedName>
@@ -27,7 +26,6 @@
     <definedName name="Pnom_">Лист1!$C$10</definedName>
     <definedName name="U">Лист1!$H$5</definedName>
     <definedName name="Unom">Лист1!$C$5</definedName>
-    <definedName name="версия_">[1]Unifloc!$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,6 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Анализ характеристик ПЭД</t>
   </si>
@@ -208,6 +207,9 @@
   </si>
   <si>
     <t>Зависимость КПД от напряжения</t>
+  </si>
+  <si>
+    <t>Унифлок вер 7.8 приложение версия 1.0</t>
   </si>
 </sst>
 </file>
@@ -2908,25 +2910,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>11.354164126856894</c:v>
+                  <c:v>11.354164126856899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.658243058642951</c:v>
+                  <c:v>12.658243058642954</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.580673940592819</c:v>
+                  <c:v>15.580673940592822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.108904169085008</c:v>
+                  <c:v>19.108904169085012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.850398520048074</c:v>
+                  <c:v>22.850398520048078</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>26.617210148186317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.316409395893078</c:v>
+                  <c:v>30.316409395893082</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>33.899878942604325</c:v>
@@ -2938,7 +2940,7 @@
                   <c:v>40.631218864996519</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.761355939368634</c:v>
+                  <c:v>43.761355939368642</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>46.732314208683803</c:v>
@@ -2953,19 +2955,19 @@
                   <c:v>54.724496287701392</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>57.100208104966768</c:v>
+                  <c:v>57.100208104966775</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>59.342803077305781</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61.459330121624632</c:v>
+                  <c:v>61.459330121624639</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>63.456840258488249</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65.342265401046603</c:v>
+                  <c:v>65.342265401046618</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>67.122334167734621</c:v>
@@ -2992,10 +2994,10 @@
                   <c:v>84.038378446784435</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>85.609942541244166</c:v>
+                  <c:v>85.60994254124418</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>87.041240244931757</c:v>
+                  <c:v>87.041240244931771</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>88.348386583392369</c:v>
@@ -3022,7 +3024,7 @@
                   <c:v>108.20789723832284</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>108.72440135783683</c:v>
+                  <c:v>108.72440135783684</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,34 +3221,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>2.6777822282330017E-2</c:v>
+                  <c:v>2.6777822282330031E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52684819904549673</c:v>
+                  <c:v>0.52684819904549696</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.70806633232072069</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77189370310834171</c:v>
+                  <c:v>0.77189370310834182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80004729481654069</c:v>
+                  <c:v>0.8000472948165408</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.81283464964630447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81770882024484715</c:v>
+                  <c:v>0.81770882024484726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81804474736978683</c:v>
+                  <c:v>0.81804474736978694</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81558936606877597</c:v>
+                  <c:v>0.81558936606877608</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81133500178274331</c:v>
+                  <c:v>0.81133500178274343</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.80588513975507914</c:v>
@@ -3255,7 +3257,7 @@
                   <c:v>0.79962636803307763</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79281659046305542</c:v>
+                  <c:v>0.79281659046305553</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.78563350078966643</c:v>
@@ -3297,13 +3299,13 @@
                   <c:v>0.66036829562574306</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.64724314942688643</c:v>
+                  <c:v>0.64724314942688654</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.63453734025740016</c:v>
+                  <c:v>0.63453734025740038</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.62224208879865217</c:v>
+                  <c:v>0.62224208879865228</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0.61034612421854972</c:v>
@@ -3315,7 +3317,7 @@
                   <c:v>0.50201047425271972</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.43021384795266587</c:v>
+                  <c:v>0.43021384795266604</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.37510554541135332</c:v>
@@ -3327,7 +3329,7 @@
                   <c:v>0.29625607905792939</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.26710820429027687</c:v>
+                  <c:v>0.26710820429027682</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.24262793328636234</c:v>
@@ -3516,64 +3518,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0.25045768344878028</c:v>
+                  <c:v>0.25045768344878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47155464737112168</c:v>
+                  <c:v>0.4715546473711214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66032400326919938</c:v>
+                  <c:v>0.66032400326919916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75403379383120051</c:v>
+                  <c:v>0.75403379383120028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80117974088426347</c:v>
+                  <c:v>0.80117974088426325</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.82534024685309237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83726621978521731</c:v>
+                  <c:v>0.83726621978521709</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.842135678886484</c:v>
+                  <c:v>0.84213567888648388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84264531301300061</c:v>
+                  <c:v>0.8426453130130005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84031185888949367</c:v>
+                  <c:v>0.84031185888949356</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83604967911963868</c:v>
+                  <c:v>0.83604967911963857</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.83044425084784801</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8238900767527636</c:v>
+                  <c:v>0.82389007675276349</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.81666438460969437</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.80896866178506333</c:v>
+                  <c:v>0.80896866178506321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.80095323717894329</c:v>
+                  <c:v>0.80095323717894307</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.79273250617933233</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.78439476714244571</c:v>
+                  <c:v>0.7843947671424456</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.77600882943078819</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.76762861337656019</c:v>
+                  <c:v>0.76762861337655997</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.75929645590345696</c:v>
@@ -3588,22 +3590,22 @@
                   <c:v>0.71173315598790088</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.69712488316222199</c:v>
+                  <c:v>0.69712488316222188</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.68320954590435401</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.66998783907073789</c:v>
+                  <c:v>0.66998783907073778</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.65744585932670796</c:v>
+                  <c:v>0.65744585932670774</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.64556049930661485</c:v>
+                  <c:v>0.64556049930661463</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.63430315191371311</c:v>
+                  <c:v>0.634303151913713</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.6236422476143606</c:v>
@@ -3612,7 +3614,7 @@
                   <c:v>0.54298374744525379</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.49296812876560941</c:v>
+                  <c:v>0.49296812876560925</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.45950256934074796</c:v>
@@ -3624,13 +3626,13 @@
                   <c:v>0.41794610383771225</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4042260408594463</c:v>
+                  <c:v>0.40422604085944636</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0.39331306714419811</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.38443075331109738</c:v>
+                  <c:v>0.38443075331109733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4472,25 +4474,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>11.354164126856894</c:v>
+                  <c:v>11.354164126856899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.658243058642951</c:v>
+                  <c:v>12.658243058642954</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.580673940592819</c:v>
+                  <c:v>15.580673940592822</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.108904169085008</c:v>
+                  <c:v>19.108904169085012</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.850398520048074</c:v>
+                  <c:v>22.850398520048078</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>26.617210148186317</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.316409395893078</c:v>
+                  <c:v>30.316409395893082</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>33.899878942604325</c:v>
@@ -4502,7 +4504,7 @@
                   <c:v>40.631218864996519</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.761355939368634</c:v>
+                  <c:v>43.761355939368642</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>46.732314208683803</c:v>
@@ -4517,19 +4519,19 @@
                   <c:v>54.724496287701392</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>57.100208104966768</c:v>
+                  <c:v>57.100208104966775</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>59.342803077305781</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61.459330121624632</c:v>
+                  <c:v>61.459330121624639</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>63.456840258488249</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>65.342265401046603</c:v>
+                  <c:v>65.342265401046618</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>67.122334167734621</c:v>
@@ -4675,34 +4677,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>2.6777822282330017E-2</c:v>
+                  <c:v>2.6777822282330031E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52684819904549673</c:v>
+                  <c:v>0.52684819904549696</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.70806633232072069</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77189370310834171</c:v>
+                  <c:v>0.77189370310834182</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80004729481654069</c:v>
+                  <c:v>0.8000472948165408</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.81283464964630447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81770882024484715</c:v>
+                  <c:v>0.81770882024484726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81804474736978683</c:v>
+                  <c:v>0.81804474736978694</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81558936606877597</c:v>
+                  <c:v>0.81558936606877608</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.81133500178274331</c:v>
+                  <c:v>0.81133500178274343</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.80588513975507914</c:v>
@@ -4711,7 +4713,7 @@
                   <c:v>0.79962636803307763</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.79281659046305542</c:v>
+                  <c:v>0.79281659046305553</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.78563350078966643</c:v>
@@ -4864,64 +4866,64 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.25045768344878028</c:v>
+                  <c:v>0.25045768344878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47155464737112168</c:v>
+                  <c:v>0.4715546473711214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66032400326919938</c:v>
+                  <c:v>0.66032400326919916</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75403379383120051</c:v>
+                  <c:v>0.75403379383120028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.80117974088426347</c:v>
+                  <c:v>0.80117974088426325</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.82534024685309237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.83726621978521731</c:v>
+                  <c:v>0.83726621978521709</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.842135678886484</c:v>
+                  <c:v>0.84213567888648388</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84264531301300061</c:v>
+                  <c:v>0.8426453130130005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.84031185888949367</c:v>
+                  <c:v>0.84031185888949356</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83604967911963868</c:v>
+                  <c:v>0.83604967911963857</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.83044425084784801</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8238900767527636</c:v>
+                  <c:v>0.82389007675276349</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.81666438460969437</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.80896866178506333</c:v>
+                  <c:v>0.80896866178506321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.80095323717894329</c:v>
+                  <c:v>0.80095323717894307</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.79273250617933233</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.78439476714244571</c:v>
+                  <c:v>0.7843947671424456</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.77600882943078819</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.76762861337656019</c:v>
+                  <c:v>0.76762861337655997</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.75929645590345696</c:v>
@@ -9254,39 +9256,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Unifloc"/>
-      <sheetName val="PVT"/>
-      <sheetName val="Construction"/>
-      <sheetName val="ESP"/>
-      <sheetName val="GasLift"/>
-      <sheetName val="Calc ESP"/>
-      <sheetName val="Calc GasLift"/>
-      <sheetName val="Calc Self Flow"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>вер 7.7</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
     </sheetNames>
@@ -9610,8 +9579,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9620,9 +9589,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
-        <f>"Унифлок "&amp;версия_&amp;" приложение версия 1.0"</f>
-        <v>Унифлок вер 7.7 приложение версия 1.0</v>
+      <c r="A1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -9713,7 +9681,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="10">
-        <f>[2]!Motor_Pnom_kW(Unom,Inom,Fnom,ID)</f>
+        <f>[1]!Motor_Pnom_kW(Unom,Inom,Fnom,ID)</f>
         <v>40.141580479753998</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -9750,23 +9718,23 @@
         <v>0</v>
       </c>
       <c r="C18" s="9">
-        <f>[2]!motor_I_A(B18,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B18,F,U,Unom,Inom,Fnom,ID)</f>
         <v>12.517668653332775</v>
       </c>
       <c r="D18" s="9">
-        <f>[2]!motor_CosPhi_d(B18,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B18,F,U,Unom,Inom,Fnom,ID)</f>
         <v>3.9440559399999998E-3</v>
       </c>
       <c r="E18" s="9">
-        <f>[2]!motor_Eff_d(B18,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B18,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.16133216780000001</v>
       </c>
       <c r="F18" s="9">
-        <f>[2]!motor_S_d(B18,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B18,F,U,Unom,Inom,Fnom,ID)</f>
         <v>-3.517871111111015E-3</v>
       </c>
       <c r="G18" s="9">
-        <f>[2]!motor_M_Nm(B18,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B18,F,U,Unom,Inom,Fnom,ID)</f>
         <v>3.6466315454021257E-2</v>
       </c>
     </row>
@@ -9776,23 +9744,23 @@
         <v>2.0070790239876999</v>
       </c>
       <c r="C19" s="9">
-        <f>[2]!motor_I_A(B19,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B19,F,U,Unom,Inom,Fnom,ID)</f>
         <v>13.264081618154266</v>
       </c>
       <c r="D19" s="9">
-        <f>[2]!motor_CosPhi_d(B19,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B19,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.13931248804209567</v>
       </c>
       <c r="E19" s="9">
-        <f>[2]!motor_Eff_d(B19,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B19,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.35712941053088004</v>
       </c>
       <c r="F19" s="9">
-        <f>[2]!motor_S_d(B19,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B19,F,U,Unom,Inom,Fnom,ID)</f>
         <v>-9.2605641961207574E-4</v>
       </c>
       <c r="G19" s="9">
-        <f>[2]!motor_M_Nm(B19,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B19,F,U,Unom,Inom,Fnom,ID)</f>
         <v>3.0291471051521071</v>
       </c>
     </row>
@@ -9802,23 +9770,23 @@
         <v>4.0141580479753998</v>
       </c>
       <c r="C20" s="9">
-        <f>[2]!motor_I_A(B20,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B20,F,U,Unom,Inom,Fnom,ID)</f>
         <v>14.036599256539414</v>
       </c>
       <c r="D20" s="9">
-        <f>[2]!motor_CosPhi_d(B20,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B20,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.25715911744034176</v>
       </c>
       <c r="E20" s="9">
-        <f>[2]!motor_Eff_d(B20,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B20,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.50401686067616003</v>
       </c>
       <c r="F20" s="9">
-        <f>[2]!motor_S_d(B20,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B20,F,U,Unom,Inom,Fnom,ID)</f>
         <v>1.769229194534816E-3</v>
       </c>
       <c r="G20" s="9">
-        <f>[2]!motor_M_Nm(B20,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B20,F,U,Unom,Inom,Fnom,ID)</f>
         <v>8.3735081664627025</v>
       </c>
     </row>
@@ -9828,23 +9796,23 @@
         <v>6.0212370719630997</v>
       </c>
       <c r="C21" s="9">
-        <f>[2]!motor_I_A(B21,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B21,F,U,Unom,Inom,Fnom,ID)</f>
         <v>14.854748752275302</v>
       </c>
       <c r="D21" s="9">
-        <f>[2]!motor_CosPhi_d(B21,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B21,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.35903338588621025</v>
       </c>
       <c r="E21" s="9">
-        <f>[2]!motor_Eff_d(B21,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B21,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.61165983869984009</v>
       </c>
       <c r="F21" s="9">
-        <f>[2]!motor_S_d(B21,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B21,F,U,Unom,Inom,Fnom,ID)</f>
         <v>4.5782629648897233E-3</v>
       </c>
       <c r="G21" s="9">
-        <f>[2]!motor_M_Nm(B21,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B21,F,U,Unom,Inom,Fnom,ID)</f>
         <v>15.056793691111102</v>
       </c>
     </row>
@@ -9854,23 +9822,23 @@
         <v>8.0283160959507995</v>
       </c>
       <c r="C22" s="9">
-        <f>[2]!motor_I_A(B22,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B22,F,U,Unom,Inom,Fnom,ID)</f>
         <v>15.734486104233678</v>
       </c>
       <c r="D22" s="9">
-        <f>[2]!motor_CosPhi_d(B22,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B22,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.44644065192341637</v>
       </c>
       <c r="E22" s="9">
-        <f>[2]!motor_Eff_d(B22,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B22,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.68838152124512009</v>
       </c>
       <c r="F22" s="9">
-        <f>[2]!motor_S_d(B22,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B22,F,U,Unom,Inom,Fnom,ID)</f>
         <v>7.5075029564367624E-3</v>
       </c>
       <c r="G22" s="9">
-        <f>[2]!motor_M_Nm(B22,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B22,F,U,Unom,Inom,Fnom,ID)</f>
         <v>22.384519526636858</v>
       </c>
     </row>
@@ -9880,23 +9848,23 @@
         <v>10.035395119938499</v>
       </c>
       <c r="C23" s="9">
-        <f>[2]!motor_I_A(B23,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B23,F,U,Unom,Inom,Fnom,ID)</f>
         <v>16.688387818946566</v>
       </c>
       <c r="D23" s="9">
-        <f>[2]!motor_CosPhi_d(B23,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B23,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.52083708898899994</v>
       </c>
       <c r="E23" s="9">
-        <f>[2]!motor_Eff_d(B23,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B23,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.74125917380000006</v>
       </c>
       <c r="F23" s="9">
-        <f>[2]!motor_S_d(B23,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B23,F,U,Unom,Inom,Fnom,ID)</f>
         <v>1.0560125623055527E-2</v>
       </c>
       <c r="G23" s="9">
-        <f>[2]!motor_M_Nm(B23,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B23,F,U,Unom,Inom,Fnom,ID)</f>
         <v>29.917580483950939</v>
       </c>
     </row>
@@ -9906,23 +9874,23 @@
         <v>12.042474143926199</v>
       </c>
       <c r="C24" s="9">
-        <f>[2]!motor_I_A(B24,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B24,F,U,Unom,Inom,Fnom,ID)</f>
         <v>17.725842603181803</v>
       </c>
       <c r="D24" s="9">
-        <f>[2]!motor_CosPhi_d(B24,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B24,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.58362458351440771</v>
       </c>
       <c r="E24" s="9">
-        <f>[2]!motor_Eff_d(B24,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B24,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.77622038336288002</v>
       </c>
       <c r="F24" s="9">
-        <f>[2]!motor_S_d(B24,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B24,F,U,Unom,Inom,Fnom,ID)</f>
         <v>1.3736563364994514E-2</v>
       </c>
       <c r="G24" s="9">
-        <f>[2]!motor_M_Nm(B24,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B24,F,U,Unom,Inom,Fnom,ID)</f>
         <v>37.407792832824363</v>
       </c>
     </row>
@@ -9932,23 +9900,23 @@
         <v>14.049553167913899</v>
       </c>
       <c r="C25" s="9">
-        <f>[2]!motor_I_A(B25,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B25,F,U,Unom,Inom,Fnom,ID)</f>
         <v>18.853243056518629</v>
       </c>
       <c r="D25" s="9">
-        <f>[2]!motor_CosPhi_d(B25,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B25,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.63614563302657379</v>
       </c>
       <c r="E25" s="9">
-        <f>[2]!motor_Eff_d(B25,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B25,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.79813929110816006</v>
       </c>
       <c r="F25" s="9">
-        <f>[2]!motor_S_d(B25,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B25,F,U,Unom,Inom,Fnom,ID)</f>
         <v>1.7035042086341434E-2</v>
       </c>
       <c r="G25" s="9">
-        <f>[2]!motor_M_Nm(B25,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B25,F,U,Unom,Inom,Fnom,ID)</f>
         <v>44.741730805739223</v>
       </c>
     </row>
@@ -9958,23 +9926,23 @@
         <v>16.056632191901599</v>
       </c>
       <c r="C26" s="9">
-        <f>[2]!motor_I_A(B26,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B26,F,U,Unom,Inom,Fnom,ID)</f>
         <v>20.074177363923269</v>
       </c>
       <c r="D26" s="9">
-        <f>[2]!motor_CosPhi_d(B26,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B26,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.67967824424900225</v>
       </c>
       <c r="E26" s="9">
-        <f>[2]!motor_Eff_d(B26,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B26,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.81093282505184006</v>
       </c>
       <c r="F26" s="9">
-        <f>[2]!motor_S_d(B26,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B26,F,U,Unom,Inom,Fnom,ID)</f>
         <v>2.0452118752496418E-2</v>
       </c>
       <c r="G26" s="9">
-        <f>[2]!motor_M_Nm(B26,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B26,F,U,Unom,Inom,Fnom,ID)</f>
         <v>51.895517264608671</v>
       </c>
     </row>
@@ -9984,23 +9952,23 @@
         <v>18.063711215889299</v>
       </c>
       <c r="C27" s="9">
-        <f>[2]!motor_I_A(B27,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B27,F,U,Unom,Inom,Fnom,ID)</f>
         <v>21.389620988324481</v>
       </c>
       <c r="D27" s="9">
-        <f>[2]!motor_CosPhi_d(B27,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B27,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.71543083120284834</v>
       </c>
       <c r="E27" s="9">
-        <f>[2]!motor_Eff_d(B27,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B27,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.81765693271712014</v>
       </c>
       <c r="F27" s="9">
-        <f>[2]!motor_S_d(B27,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B27,F,U,Unom,Inom,Fnom,ID)</f>
         <v>2.3983218947643326E-2</v>
       </c>
       <c r="G27" s="9">
-        <f>[2]!motor_M_Nm(B27,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B27,F,U,Unom,Inom,Fnom,ID)</f>
         <v>58.899836389836182</v>
       </c>
     </row>
@@ -10010,23 +9978,23 @@
         <v>20.070790239876999</v>
       </c>
       <c r="C28" s="9">
-        <f>[2]!motor_I_A(B28,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B28,F,U,Unom,Inom,Fnom,ID)</f>
         <v>22.798128363189168</v>
       </c>
       <c r="D28" s="9">
-        <f>[2]!motor_CosPhi_d(B28,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B28,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.7445371133080001</v>
       </c>
       <c r="E28" s="9">
-        <f>[2]!motor_Eff_d(B28,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B28,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.82060281380000011</v>
       </c>
       <c r="F28" s="9">
-        <f>[2]!motor_S_d(B28,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B28,F,U,Unom,Inom,Fnom,ID)</f>
         <v>2.7623174432222286E-2</v>
       </c>
       <c r="G28" s="9">
-        <f>[2]!motor_M_Nm(B28,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B28,F,U,Unom,Inom,Fnom,ID)</f>
         <v>65.813267965532972</v>
       </c>
     </row>
@@ -10036,23 +10004,23 @@
         <v>22.077869263864699</v>
       </c>
       <c r="C29" s="9">
-        <f>[2]!motor_I_A(B29,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B29,F,U,Unom,Inom,Fnom,ID)</f>
         <v>24.2960245850979</v>
       </c>
       <c r="D29" s="9">
-        <f>[2]!motor_CosPhi_d(B29,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B29,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.76805101348415972</v>
       </c>
       <c r="E29" s="9">
-        <f>[2]!motor_Eff_d(B29,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B29,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.82139315283488001</v>
       </c>
       <c r="F29" s="9">
-        <f>[2]!motor_S_d(B29,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B29,F,U,Unom,Inom,Fnom,ID)</f>
         <v>3.136676070040112E-2</v>
       </c>
       <c r="G29" s="9">
-        <f>[2]!motor_M_Nm(B29,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B29,F,U,Unom,Inom,Fnom,ID)</f>
         <v>72.702024348327726</v>
       </c>
     </row>
@@ -10062,23 +10030,23 @@
         <v>24.084948287852399</v>
       </c>
       <c r="C30" s="9">
-        <f>[2]!motor_I_A(B30,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B30,F,U,Unom,Inom,Fnom,ID)</f>
         <v>25.877597106320543</v>
       </c>
       <c r="D30" s="9">
-        <f>[2]!motor_CosPhi_d(B30,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B30,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.78694155625192574</v>
       </c>
       <c r="E30" s="9">
-        <f>[2]!motor_Eff_d(B30,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B30,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.82107835186016009</v>
       </c>
       <c r="F30" s="9">
-        <f>[2]!motor_S_d(B30,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B30,F,U,Unom,Inom,Fnom,ID)</f>
         <v>3.5209234537548206E-2</v>
       </c>
       <c r="G30" s="9">
-        <f>[2]!motor_M_Nm(B30,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B30,F,U,Unom,Inom,Fnom,ID)</f>
         <v>79.624624882242202</v>
       </c>
     </row>
@@ -10088,23 +10056,23 @@
         <v>26.092027311840098</v>
       </c>
       <c r="C31" s="9">
-        <f>[2]!motor_I_A(B31,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B31,F,U,Unom,Inom,Fnom,ID)</f>
         <v>27.535287427391786</v>
       </c>
       <c r="D31" s="9">
-        <f>[2]!motor_CosPhi_d(B31,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B31,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.80208776583387431</v>
       </c>
       <c r="E31" s="9">
-        <f>[2]!motor_Eff_d(B31,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B31,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.82023276308384008</v>
       </c>
       <c r="F31" s="9">
-        <f>[2]!motor_S_d(B31,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B31,F,U,Unom,Inom,Fnom,ID)</f>
         <v>3.9146871577703024E-2</v>
       </c>
       <c r="G31" s="9">
-        <f>[2]!motor_M_Nm(B31,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B31,F,U,Unom,Inom,Fnom,ID)</f>
         <v>86.620586325580689</v>
       </c>
     </row>
@@ -10114,23 +10082,23 @@
         <v>28.099106335827798</v>
       </c>
       <c r="C32" s="9">
-        <f>[2]!motor_I_A(B32,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B32,F,U,Unom,Inom,Fnom,ID)</f>
         <v>29.259882789686745</v>
       </c>
       <c r="D32" s="9">
-        <f>[2]!motor_CosPhi_d(B32,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B32,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.81427356425564046</v>
       </c>
       <c r="E32" s="9">
-        <f>[2]!motor_Eff_d(B32,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B32,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.81905092154912007</v>
       </c>
       <c r="F32" s="9">
-        <f>[2]!motor_S_d(B32,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B32,F,U,Unom,Inom,Fnom,ID)</f>
         <v>4.3177503861050015E-2</v>
       </c>
       <c r="G32" s="9">
-        <f>[2]!motor_M_Nm(B32,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B32,F,U,Unom,Inom,Fnom,ID)</f>
         <v>93.702666947122893</v>
       </c>
     </row>
@@ -10140,23 +10108,23 @@
         <v>30.106185359815498</v>
       </c>
       <c r="C33" s="9">
-        <f>[2]!motor_I_A(B33,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B33,F,U,Unom,Inom,Fnom,ID)</f>
         <v>31.040707867996524</v>
       </c>
       <c r="D33" s="9">
-        <f>[2]!motor_CosPhi_d(B33,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B33,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.82418266944700003</v>
       </c>
       <c r="E33" s="9">
-        <f>[2]!motor_Eff_d(B33,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B33,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.8174437778000001</v>
       </c>
       <c r="F33" s="9">
-        <f>[2]!motor_S_d(B33,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B33,F,U,Unom,Inom,Fnom,ID)</f>
         <v>4.7301057391389012E-2</v>
       </c>
       <c r="G33" s="9">
-        <f>[2]!motor_M_Nm(B33,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B33,F,U,Unom,Inom,Fnom,ID)</f>
         <v>100.85253350443335</v>
       </c>
     </row>
@@ -10166,23 +10134,23 @@
         <v>32.113264383803198</v>
       </c>
       <c r="C34" s="9">
-        <f>[2]!motor_I_A(B34,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B34,F,U,Unom,Inom,Fnom,ID)</f>
         <v>32.865816463103791</v>
       </c>
       <c r="D34" s="9">
-        <f>[2]!motor_CosPhi_d(B34,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B34,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.83239349334295187</v>
       </c>
       <c r="E34" s="9">
-        <f>[2]!motor_Eff_d(B34,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B34,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.81513493054688002</v>
       </c>
       <c r="F34" s="9">
-        <f>[2]!motor_S_d(B34,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B34,F,U,Unom,Inom,Fnom,ID)</f>
         <v>5.1520089693607884E-2</v>
       </c>
       <c r="G34" s="9">
-        <f>[2]!motor_M_Nm(B34,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B34,F,U,Unom,Inom,Fnom,ID)</f>
         <v>108.01995165627025</v>
       </c>
     </row>
@@ -10192,23 +10160,23 @@
         <v>34.120343407790898</v>
       </c>
       <c r="C35" s="9">
-        <f>[2]!motor_I_A(B35,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B35,F,U,Unom,Inom,Fnom,ID)</f>
         <v>34.72218319435833</v>
       </c>
       <c r="D35" s="9">
-        <f>[2]!motor_CosPhi_d(B35,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B35,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.83937403998479776</v>
       </c>
       <c r="E35" s="9">
-        <f>[2]!motor_Eff_d(B35,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B35,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.81175685933216002</v>
       </c>
       <c r="F35" s="9">
-        <f>[2]!motor_S_d(B35,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B35,F,U,Unom,Inom,Fnom,ID)</f>
         <v>5.5840327371154852E-2</v>
       </c>
       <c r="G35" s="9">
-        <f>[2]!motor_M_Nm(B35,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B35,F,U,Unom,Inom,Fnom,ID)</f>
         <v>115.12578019798387</v>
       </c>
     </row>
@@ -10218,23 +10186,23 @@
         <v>36.127422431778598</v>
       </c>
       <c r="C36" s="9">
-        <f>[2]!motor_I_A(B36,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B36,F,U,Unom,Inom,Fnom,ID)</f>
         <v>36.595895192252669</v>
       </c>
       <c r="D36" s="9">
-        <f>[2]!motor_CosPhi_d(B36,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B36,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.84547680362122635</v>
       </c>
       <c r="E36" s="9">
-        <f>[2]!motor_Eff_d(B36,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B36,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.80694715719583998</v>
       </c>
       <c r="F36" s="9">
-        <f>[2]!motor_S_d(B36,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B36,F,U,Unom,Inom,Fnom,ID)</f>
         <v>6.0271203663509798E-2</v>
       </c>
       <c r="G36" s="9">
-        <f>[2]!motor_M_Nm(B36,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B36,F,U,Unom,Inom,Fnom,ID)</f>
         <v>122.06921207209315</v>
       </c>
     </row>
@@ -10244,23 +10212,23 @@
         <v>38.134501455766298</v>
       </c>
       <c r="C37" s="9">
-        <f>[2]!motor_I_A(B37,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B37,F,U,Unom,Inom,Fnom,ID)</f>
         <v>38.472343790997598</v>
       </c>
       <c r="D37" s="9">
-        <f>[2]!motor_CosPhi_d(B37,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B37,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.85093366680939242</v>
       </c>
       <c r="E37" s="9">
-        <f>[2]!motor_Eff_d(B37,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B37,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.80044476334111991</v>
       </c>
       <c r="F37" s="9">
-        <f>[2]!motor_S_d(B37,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B37,F,U,Unom,Inom,Fnom,ID)</f>
         <v>6.4826396003656583E-2</v>
       </c>
       <c r="G37" s="9">
-        <f>[2]!motor_M_Nm(B37,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B37,F,U,Unom,Inom,Fnom,ID)</f>
         <v>128.73984678935253</v>
       </c>
     </row>
@@ -10270,23 +10238,23 @@
         <v>40.141580479753998</v>
       </c>
       <c r="C38" s="9">
-        <f>[2]!motor_I_A(B38,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_I_A(B38,F,U,Unom,Inom,Fnom,ID)</f>
         <v>40.336416221097764</v>
       </c>
       <c r="D38" s="9">
-        <f>[2]!motor_CosPhi_d(B38,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_CosPhi_d(B38,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.8558507985160001</v>
       </c>
       <c r="E38" s="9">
-        <f>[2]!motor_Eff_d(B38,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(B38,F,U,Unom,Inom,Fnom,ID)</f>
         <v>0.79218619579999983</v>
       </c>
       <c r="F38" s="9">
-        <f>[2]!motor_S_d(B38,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_S_d(B38,F,U,Unom,Inom,Fnom,ID)</f>
         <v>6.9524363575555581E-2</v>
       </c>
       <c r="G38" s="9">
-        <f>[2]!motor_M_Nm(B38,F,U,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_M_Nm(B38,F,U,Unom,Inom,Fnom,ID)</f>
         <v>135.03524690714451</v>
       </c>
     </row>
@@ -10317,20 +10285,20 @@
         <v>0</v>
       </c>
       <c r="C45" s="9">
-        <f>[2]!motor_M_slip_Nm(B45,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B45,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.34985999907695309</v>
       </c>
       <c r="D45" s="9">
-        <f>[2]!motor_I_slip_A(B45,F,U,Unom,Inom,Fnom,0)</f>
-        <v>11.354164126856894</v>
+        <f>[1]!motor_I_slip_A(B45,F,U,Unom,Inom,Fnom,0)</f>
+        <v>11.354164126856899</v>
       </c>
       <c r="E45" s="9">
-        <f>[2]!motor_Eff_slip(B45,F,U,Unom,Inom,Fnom,0)</f>
-        <v>2.6777822282330017E-2</v>
+        <f>[1]!motor_Eff_slip(B45,F,U,Unom,Inom,Fnom,0)</f>
+        <v>2.6777822282330031E-2</v>
       </c>
       <c r="F45" s="9">
-        <f>[2]!motor_CosPhi_slip(B45,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.25045768344878028</v>
+        <f>[1]!motor_CosPhi_slip(B45,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.25045768344878</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
@@ -10338,20 +10306,20 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C46" s="9">
-        <f>[2]!motor_M_slip_Nm(B46,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B46,F,U,Unom,Inom,Fnom,0)</f>
         <v>14.448423684442965</v>
       </c>
       <c r="D46" s="9">
-        <f>[2]!motor_I_slip_A(B46,F,U,Unom,Inom,Fnom,0)</f>
-        <v>12.658243058642951</v>
+        <f>[1]!motor_I_slip_A(B46,F,U,Unom,Inom,Fnom,0)</f>
+        <v>12.658243058642954</v>
       </c>
       <c r="E46" s="9">
-        <f>[2]!motor_Eff_slip(B46,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.52684819904549673</v>
+        <f>[1]!motor_Eff_slip(B46,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.52684819904549696</v>
       </c>
       <c r="F46" s="9">
-        <f>[2]!motor_CosPhi_slip(B46,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.47155464737112168</v>
+        <f>[1]!motor_CosPhi_slip(B46,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.4715546473711214</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
@@ -10359,20 +10327,20 @@
         <v>0.01</v>
       </c>
       <c r="C47" s="9">
-        <f>[2]!motor_M_slip_Nm(B47,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B47,F,U,Unom,Inom,Fnom,0)</f>
         <v>33.469311375598011</v>
       </c>
       <c r="D47" s="9">
-        <f>[2]!motor_I_slip_A(B47,F,U,Unom,Inom,Fnom,0)</f>
-        <v>15.580673940592819</v>
+        <f>[1]!motor_I_slip_A(B47,F,U,Unom,Inom,Fnom,0)</f>
+        <v>15.580673940592822</v>
       </c>
       <c r="E47" s="9">
-        <f>[2]!motor_Eff_slip(B47,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B47,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.70806633232072069</v>
       </c>
       <c r="F47" s="9">
-        <f>[2]!motor_CosPhi_slip(B47,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.66032400326919938</v>
+        <f>[1]!motor_CosPhi_slip(B47,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.66032400326919916</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
@@ -10380,20 +10348,20 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="C48" s="9">
-        <f>[2]!motor_M_slip_Nm(B48,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B48,F,U,Unom,Inom,Fnom,0)</f>
         <v>51.099140989339361</v>
       </c>
       <c r="D48" s="9">
-        <f>[2]!motor_I_slip_A(B48,F,U,Unom,Inom,Fnom,0)</f>
-        <v>19.108904169085008</v>
+        <f>[1]!motor_I_slip_A(B48,F,U,Unom,Inom,Fnom,0)</f>
+        <v>19.108904169085012</v>
       </c>
       <c r="E48" s="9">
-        <f>[2]!motor_Eff_slip(B48,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.77189370310834171</v>
+        <f>[1]!motor_Eff_slip(B48,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.77189370310834182</v>
       </c>
       <c r="F48" s="9">
-        <f>[2]!motor_CosPhi_slip(B48,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.75403379383120051</v>
+        <f>[1]!motor_CosPhi_slip(B48,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.75403379383120028</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
@@ -10401,20 +10369,20 @@
         <v>0.02</v>
       </c>
       <c r="C49" s="9">
-        <f>[2]!motor_M_slip_Nm(B49,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B49,F,U,Unom,Inom,Fnom,0)</f>
         <v>67.292847729864064</v>
       </c>
       <c r="D49" s="9">
-        <f>[2]!motor_I_slip_A(B49,F,U,Unom,Inom,Fnom,0)</f>
-        <v>22.850398520048074</v>
+        <f>[1]!motor_I_slip_A(B49,F,U,Unom,Inom,Fnom,0)</f>
+        <v>22.850398520048078</v>
       </c>
       <c r="E49" s="9">
-        <f>[2]!motor_Eff_slip(B49,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.80004729481654069</v>
+        <f>[1]!motor_Eff_slip(B49,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.8000472948165408</v>
       </c>
       <c r="F49" s="9">
-        <f>[2]!motor_CosPhi_slip(B49,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.80117974088426347</v>
+        <f>[1]!motor_CosPhi_slip(B49,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.80117974088426325</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
@@ -10422,19 +10390,19 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="C50" s="9">
-        <f>[2]!motor_M_slip_Nm(B50,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B50,F,U,Unom,Inom,Fnom,0)</f>
         <v>82.040306483768134</v>
       </c>
       <c r="D50" s="9">
-        <f>[2]!motor_I_slip_A(B50,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B50,F,U,Unom,Inom,Fnom,0)</f>
         <v>26.617210148186317</v>
       </c>
       <c r="E50" s="9">
-        <f>[2]!motor_Eff_slip(B50,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B50,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.81283464964630447</v>
       </c>
       <c r="F50" s="9">
-        <f>[2]!motor_CosPhi_slip(B50,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B50,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.82534024685309237</v>
       </c>
     </row>
@@ -10443,20 +10411,20 @@
         <v>0.03</v>
       </c>
       <c r="C51" s="9">
-        <f>[2]!motor_M_slip_Nm(B51,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B51,F,U,Unom,Inom,Fnom,0)</f>
         <v>95.360720493781457</v>
       </c>
       <c r="D51" s="9">
-        <f>[2]!motor_I_slip_A(B51,F,U,Unom,Inom,Fnom,0)</f>
-        <v>30.316409395893078</v>
+        <f>[1]!motor_I_slip_A(B51,F,U,Unom,Inom,Fnom,0)</f>
+        <v>30.316409395893082</v>
       </c>
       <c r="E51" s="9">
-        <f>[2]!motor_Eff_slip(B51,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.81770882024484715</v>
+        <f>[1]!motor_Eff_slip(B51,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.81770882024484726</v>
       </c>
       <c r="F51" s="9">
-        <f>[2]!motor_CosPhi_slip(B51,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.83726621978521731</v>
+        <f>[1]!motor_CosPhi_slip(B51,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.83726621978521709</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
@@ -10464,20 +10432,20 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="C52" s="9">
-        <f>[2]!motor_M_slip_Nm(B52,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B52,F,U,Unom,Inom,Fnom,0)</f>
         <v>107.29680347575611</v>
       </c>
       <c r="D52" s="9">
-        <f>[2]!motor_I_slip_A(B52,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B52,F,U,Unom,Inom,Fnom,0)</f>
         <v>33.899878942604325</v>
       </c>
       <c r="E52" s="9">
-        <f>[2]!motor_Eff_slip(B52,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.81804474736978683</v>
+        <f>[1]!motor_Eff_slip(B52,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.81804474736978694</v>
       </c>
       <c r="F52" s="9">
-        <f>[2]!motor_CosPhi_slip(B52,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.842135678886484</v>
+        <f>[1]!motor_CosPhi_slip(B52,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.84213567888648388</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
@@ -10485,20 +10453,20 @@
         <v>0.04</v>
       </c>
       <c r="C53" s="9">
-        <f>[2]!motor_M_slip_Nm(B53,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B53,F,U,Unom,Inom,Fnom,0)</f>
         <v>117.90916456471876</v>
       </c>
       <c r="D53" s="9">
-        <f>[2]!motor_I_slip_A(B53,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B53,F,U,Unom,Inom,Fnom,0)</f>
         <v>37.342353809009268</v>
       </c>
       <c r="E53" s="9">
-        <f>[2]!motor_Eff_slip(B53,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.81558936606877597</v>
+        <f>[1]!motor_Eff_slip(B53,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.81558936606877608</v>
       </c>
       <c r="F53" s="9">
-        <f>[2]!motor_CosPhi_slip(B53,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.84264531301300061</v>
+        <f>[1]!motor_CosPhi_slip(B53,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.8426453130130005</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
@@ -10506,20 +10474,20 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="C54" s="9">
-        <f>[2]!motor_M_slip_Nm(B54,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B54,F,U,Unom,Inom,Fnom,0)</f>
         <v>127.27117804595468</v>
       </c>
       <c r="D54" s="9">
-        <f>[2]!motor_I_slip_A(B54,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B54,F,U,Unom,Inom,Fnom,0)</f>
         <v>40.631218864996519</v>
       </c>
       <c r="E54" s="9">
-        <f>[2]!motor_Eff_slip(B54,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.81133500178274331</v>
+        <f>[1]!motor_Eff_slip(B54,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.81133500178274343</v>
       </c>
       <c r="F54" s="9">
-        <f>[2]!motor_CosPhi_slip(B54,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.84031185888949367</v>
+        <f>[1]!motor_CosPhi_slip(B54,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.84031185888949356</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -10527,20 +10495,20 @@
         <v>0.05</v>
       </c>
       <c r="C55" s="9">
-        <f>[2]!motor_M_slip_Nm(B55,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B55,F,U,Unom,Inom,Fnom,0)</f>
         <v>135.4645038939818</v>
       </c>
       <c r="D55" s="9">
-        <f>[2]!motor_I_slip_A(B55,F,U,Unom,Inom,Fnom,0)</f>
-        <v>43.761355939368634</v>
+        <f>[1]!motor_I_slip_A(B55,F,U,Unom,Inom,Fnom,0)</f>
+        <v>43.761355939368642</v>
       </c>
       <c r="E55" s="9">
-        <f>[2]!motor_Eff_slip(B55,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B55,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.80588513975507914</v>
       </c>
       <c r="F55" s="9">
-        <f>[2]!motor_CosPhi_slip(B55,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.83604967911963868</v>
+        <f>[1]!motor_CosPhi_slip(B55,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.83604967911963857</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
@@ -10548,19 +10516,19 @@
         <v>5.5E-2</v>
       </c>
       <c r="C56" s="9">
-        <f>[2]!motor_M_slip_Nm(B56,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B56,F,U,Unom,Inom,Fnom,0)</f>
         <v>142.57533025220971</v>
       </c>
       <c r="D56" s="9">
-        <f>[2]!motor_I_slip_A(B56,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B56,F,U,Unom,Inom,Fnom,0)</f>
         <v>46.732314208683803</v>
       </c>
       <c r="E56" s="9">
-        <f>[2]!motor_Eff_slip(B56,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B56,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.79962636803307763</v>
       </c>
       <c r="F56" s="9">
-        <f>[2]!motor_CosPhi_slip(B56,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B56,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.83044425084784801</v>
       </c>
     </row>
@@ -10569,20 +10537,20 @@
         <v>0.06</v>
       </c>
       <c r="C57" s="9">
-        <f>[2]!motor_M_slip_Nm(B57,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B57,F,U,Unom,Inom,Fnom,0)</f>
         <v>148.69133834897011</v>
       </c>
       <c r="D57" s="9">
-        <f>[2]!motor_I_slip_A(B57,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B57,F,U,Unom,Inom,Fnom,0)</f>
         <v>49.546634523792854</v>
       </c>
       <c r="E57" s="9">
-        <f>[2]!motor_Eff_slip(B57,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.79281659046305542</v>
+        <f>[1]!motor_Eff_slip(B57,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.79281659046305553</v>
       </c>
       <c r="F57" s="9">
-        <f>[2]!motor_CosPhi_slip(B57,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.8238900767527636</v>
+        <f>[1]!motor_CosPhi_slip(B57,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.82389007675276349</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
@@ -10590,19 +10558,19 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="C58" s="9">
-        <f>[2]!motor_M_slip_Nm(B58,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B58,F,U,Unom,Inom,Fnom,0)</f>
         <v>153.89934284417734</v>
       </c>
       <c r="D58" s="9">
-        <f>[2]!motor_I_slip_A(B58,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B58,F,U,Unom,Inom,Fnom,0)</f>
         <v>52.208792211885886</v>
       </c>
       <c r="E58" s="9">
-        <f>[2]!motor_Eff_slip(B58,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B58,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.78563350078966643</v>
       </c>
       <c r="F58" s="9">
-        <f>[2]!motor_CosPhi_slip(B58,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B58,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.81666438460969437</v>
       </c>
     </row>
@@ -10611,20 +10579,20 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C59" s="9">
-        <f>[2]!motor_M_slip_Nm(B59,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B59,F,U,Unom,Inom,Fnom,0)</f>
         <v>158.28353270349413</v>
       </c>
       <c r="D59" s="9">
-        <f>[2]!motor_I_slip_A(B59,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B59,F,U,Unom,Inom,Fnom,0)</f>
         <v>54.724496287701392</v>
       </c>
       <c r="E59" s="9">
-        <f>[2]!motor_Eff_slip(B59,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B59,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.77820273931343931</v>
       </c>
       <c r="F59" s="9">
-        <f>[2]!motor_CosPhi_slip(B59,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.80896866178506333</v>
+        <f>[1]!motor_CosPhi_slip(B59,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.80896866178506321</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -10632,20 +10600,20 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C60" s="9">
-        <f>[2]!motor_M_slip_Nm(B60,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B60,F,U,Unom,Inom,Fnom,0)</f>
         <v>161.92422494645672</v>
       </c>
       <c r="D60" s="9">
-        <f>[2]!motor_I_slip_A(B60,F,U,Unom,Inom,Fnom,0)</f>
-        <v>57.100208104966768</v>
+        <f>[1]!motor_I_slip_A(B60,F,U,Unom,Inom,Fnom,0)</f>
+        <v>57.100208104966775</v>
       </c>
       <c r="E60" s="9">
-        <f>[2]!motor_Eff_slip(B60,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B60,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.77061501421513534</v>
       </c>
       <c r="F60" s="9">
-        <f>[2]!motor_CosPhi_slip(B60,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.80095323717894329</v>
+        <f>[1]!motor_CosPhi_slip(B60,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.80095323717894307</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -10653,19 +10621,19 @@
         <v>0.08</v>
       </c>
       <c r="C61" s="9">
-        <f>[2]!motor_M_slip_Nm(B61,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B61,F,U,Unom,Inom,Fnom,0)</f>
         <v>164.89704161249989</v>
       </c>
       <c r="D61" s="9">
-        <f>[2]!motor_I_slip_A(B61,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B61,F,U,Unom,Inom,Fnom,0)</f>
         <v>59.342803077305781</v>
       </c>
       <c r="E61" s="9">
-        <f>[2]!motor_Eff_slip(B61,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B61,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.76293692057202755</v>
       </c>
       <c r="F61" s="9">
-        <f>[2]!motor_CosPhi_slip(B61,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B61,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.79273250617933233</v>
       </c>
     </row>
@@ -10674,20 +10642,20 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="C62" s="9">
-        <f>[2]!motor_M_slip_Nm(B62,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B62,F,U,Unom,Inom,Fnom,0)</f>
         <v>167.27242523202293</v>
       </c>
       <c r="D62" s="9">
-        <f>[2]!motor_I_slip_A(B62,F,U,Unom,Inom,Fnom,0)</f>
-        <v>61.459330121624632</v>
+        <f>[1]!motor_I_slip_A(B62,F,U,Unom,Inom,Fnom,0)</f>
+        <v>61.459330121624639</v>
       </c>
       <c r="E62" s="9">
-        <f>[2]!motor_Eff_slip(B62,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B62,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.75521800434134034</v>
       </c>
       <c r="F62" s="9">
-        <f>[2]!motor_CosPhi_slip(B62,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.78439476714244571</v>
+        <f>[1]!motor_CosPhi_slip(B62,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.7843947671424456</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -10695,19 +10663,19 @@
         <v>0.09</v>
       </c>
       <c r="C63" s="9">
-        <f>[2]!motor_M_slip_Nm(B63,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B63,F,U,Unom,Inom,Fnom,0)</f>
         <v>169.1154169848889</v>
       </c>
       <c r="D63" s="9">
-        <f>[2]!motor_I_slip_A(B63,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B63,F,U,Unom,Inom,Fnom,0)</f>
         <v>63.456840258488249</v>
       </c>
       <c r="E63" s="9">
-        <f>[2]!motor_Eff_slip(B63,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B63,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.74749550640661544</v>
       </c>
       <c r="F63" s="9">
-        <f>[2]!motor_CosPhi_slip(B63,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B63,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.77600882943078819</v>
       </c>
     </row>
@@ -10716,20 +10684,20 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="C64" s="9">
-        <f>[2]!motor_M_slip_Nm(B64,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B64,F,U,Unom,Inom,Fnom,0)</f>
         <v>170.48563239593003</v>
       </c>
       <c r="D64" s="9">
-        <f>[2]!motor_I_slip_A(B64,F,U,Unom,Inom,Fnom,0)</f>
-        <v>65.342265401046603</v>
+        <f>[1]!motor_I_slip_A(B64,F,U,Unom,Inom,Fnom,0)</f>
+        <v>65.342265401046618</v>
       </c>
       <c r="E64" s="9">
-        <f>[2]!motor_Eff_slip(B64,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B64,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.73979762760377143</v>
       </c>
       <c r="F64" s="9">
-        <f>[2]!motor_CosPhi_slip(B64,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.76762861337656019</v>
+        <f>[1]!motor_CosPhi_slip(B64,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.76762861337655997</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
@@ -10737,19 +10705,19 @@
         <v>0.1</v>
       </c>
       <c r="C65" s="9">
-        <f>[2]!motor_M_slip_Nm(B65,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B65,F,U,Unom,Inom,Fnom,0)</f>
         <v>171.43738038508653</v>
       </c>
       <c r="D65" s="9">
-        <f>[2]!motor_I_slip_A(B65,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B65,F,U,Unom,Inom,Fnom,0)</f>
         <v>67.122334167734621</v>
       </c>
       <c r="E65" s="9">
-        <f>[2]!motor_Eff_slip(B65,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B65,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.73214582459047806</v>
       </c>
       <c r="F65" s="9">
-        <f>[2]!motor_CosPhi_slip(B65,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B65,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.75929645590345696</v>
       </c>
     </row>
@@ -10758,19 +10726,19 @@
         <v>0.11</v>
       </c>
       <c r="C66" s="9">
-        <f>[2]!motor_M_slip_Nm(B66,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B66,F,U,Unom,Inom,Fnom,0)</f>
         <v>172.2775532214425</v>
       </c>
       <c r="D66" s="9">
-        <f>[2]!motor_I_slip_A(B66,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B66,F,U,Unom,Inom,Fnom,0)</f>
         <v>70.39198142334341</v>
       </c>
       <c r="E66" s="9">
-        <f>[2]!motor_Eff_slip(B66,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B66,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.71704197692839844</v>
       </c>
       <c r="F66" s="9">
-        <f>[2]!motor_CosPhi_slip(B66,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B66,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.7429018084556287</v>
       </c>
     </row>
@@ -10779,19 +10747,19 @@
         <v>0.12</v>
       </c>
       <c r="C67" s="9">
-        <f>[2]!motor_M_slip_Nm(B67,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B67,F,U,Unom,Inom,Fnom,0)</f>
         <v>171.97399890335438</v>
       </c>
       <c r="D67" s="9">
-        <f>[2]!motor_I_slip_A(B67,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B67,F,U,Unom,Inom,Fnom,0)</f>
         <v>73.313867526746222</v>
       </c>
       <c r="E67" s="9">
-        <f>[2]!motor_Eff_slip(B67,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B67,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.70227312586798762</v>
       </c>
       <c r="F67" s="9">
-        <f>[2]!motor_CosPhi_slip(B67,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B67,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.72701120009437126</v>
       </c>
     </row>
@@ -10800,19 +10768,19 @@
         <v>0.13</v>
       </c>
       <c r="C68" s="9">
-        <f>[2]!motor_M_slip_Nm(B68,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B68,F,U,Unom,Inom,Fnom,0)</f>
         <v>170.79853869207599</v>
       </c>
       <c r="D68" s="9">
-        <f>[2]!motor_I_slip_A(B68,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B68,F,U,Unom,Inom,Fnom,0)</f>
         <v>75.930930706812362</v>
       </c>
       <c r="E68" s="9">
-        <f>[2]!motor_Eff_slip(B68,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B68,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.68788956433912929</v>
       </c>
       <c r="F68" s="9">
-        <f>[2]!motor_CosPhi_slip(B68,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B68,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.71173315598790088</v>
       </c>
     </row>
@@ -10821,20 +10789,20 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="C69" s="9">
-        <f>[2]!motor_M_slip_Nm(B69,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B69,F,U,Unom,Inom,Fnom,0)</f>
         <v>168.96751405381158</v>
       </c>
       <c r="D69" s="9">
-        <f>[2]!motor_I_slip_A(B69,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B69,F,U,Unom,Inom,Fnom,0)</f>
         <v>78.280994946846732</v>
       </c>
       <c r="E69" s="9">
-        <f>[2]!motor_Eff_slip(B69,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B69,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.67391757795322416</v>
       </c>
       <c r="F69" s="9">
-        <f>[2]!motor_CosPhi_slip(B69,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.69712488316222199</v>
+        <f>[1]!motor_CosPhi_slip(B69,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.69712488316222188</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.25">
@@ -10842,19 +10810,19 @@
         <v>0.15</v>
       </c>
       <c r="C70" s="9">
-        <f>[2]!motor_M_slip_Nm(B70,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B70,F,U,Unom,Inom,Fnom,0)</f>
         <v>166.65179935515502</v>
       </c>
       <c r="D70" s="9">
-        <f>[2]!motor_I_slip_A(B70,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B70,F,U,Unom,Inom,Fnom,0)</f>
         <v>80.397095298801602</v>
       </c>
       <c r="E70" s="9">
-        <f>[2]!motor_Eff_slip(B70,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B70,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.66036829562574306</v>
       </c>
       <c r="F70" s="9">
-        <f>[2]!motor_CosPhi_slip(B70,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B70,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.68320954590435401</v>
       </c>
     </row>
@@ -10863,20 +10831,20 @@
         <v>0.16</v>
       </c>
       <c r="C71" s="9">
-        <f>[2]!motor_M_slip_Nm(B71,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B71,F,U,Unom,Inom,Fnom,0)</f>
         <v>163.98555490020314</v>
       </c>
       <c r="D71" s="9">
-        <f>[2]!motor_I_slip_A(B71,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B71,F,U,Unom,Inom,Fnom,0)</f>
         <v>82.307934401329533</v>
       </c>
       <c r="E71" s="9">
-        <f>[2]!motor_Eff_slip(B71,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.64724314942688643</v>
+        <f>[1]!motor_Eff_slip(B71,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.64724314942688654</v>
       </c>
       <c r="F71" s="9">
-        <f>[2]!motor_CosPhi_slip(B71,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.66998783907073789</v>
+        <f>[1]!motor_CosPhi_slip(B71,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.66998783907073778</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
@@ -10884,20 +10852,20 @@
         <v>0.17</v>
       </c>
       <c r="C72" s="9">
-        <f>[2]!motor_M_slip_Nm(B72,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B72,F,U,Unom,Inom,Fnom,0)</f>
         <v>161.07359466188197</v>
       </c>
       <c r="D72" s="9">
-        <f>[2]!motor_I_slip_A(B72,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B72,F,U,Unom,Inom,Fnom,0)</f>
         <v>84.038378446784435</v>
       </c>
       <c r="E72" s="9">
-        <f>[2]!motor_Eff_slip(B72,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.63453734025740016</v>
+        <f>[1]!motor_Eff_slip(B72,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.63453734025740038</v>
       </c>
       <c r="F72" s="9">
-        <f>[2]!motor_CosPhi_slip(B72,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.65744585932670796</v>
+        <f>[1]!motor_CosPhi_slip(B72,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.65744585932670774</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
@@ -10905,20 +10873,20 @@
         <v>0.18</v>
       </c>
       <c r="C73" s="9">
-        <f>[2]!motor_M_slip_Nm(B73,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B73,F,U,Unom,Inom,Fnom,0)</f>
         <v>157.99743871392505</v>
       </c>
       <c r="D73" s="9">
-        <f>[2]!motor_I_slip_A(B73,F,U,Unom,Inom,Fnom,0)</f>
-        <v>85.609942541244166</v>
+        <f>[1]!motor_I_slip_A(B73,F,U,Unom,Inom,Fnom,0)</f>
+        <v>85.60994254124418</v>
       </c>
       <c r="E73" s="9">
-        <f>[2]!motor_Eff_slip(B73,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.62224208879865217</v>
+        <f>[1]!motor_Eff_slip(B73,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.62224208879865228</v>
       </c>
       <c r="F73" s="9">
-        <f>[2]!motor_CosPhi_slip(B73,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.64556049930661485</v>
+        <f>[1]!motor_CosPhi_slip(B73,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.64556049930661463</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
@@ -10926,20 +10894,20 @@
         <v>0.19</v>
       </c>
       <c r="C74" s="9">
-        <f>[2]!motor_M_slip_Nm(B74,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B74,F,U,Unom,Inom,Fnom,0)</f>
         <v>154.82020557563558</v>
       </c>
       <c r="D74" s="9">
-        <f>[2]!motor_I_slip_A(B74,F,U,Unom,Inom,Fnom,0)</f>
-        <v>87.041240244931757</v>
+        <f>[1]!motor_I_slip_A(B74,F,U,Unom,Inom,Fnom,0)</f>
+        <v>87.041240244931771</v>
       </c>
       <c r="E74" s="9">
-        <f>[2]!motor_Eff_slip(B74,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B74,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.61034612421854972</v>
       </c>
       <c r="F74" s="9">
-        <f>[2]!motor_CosPhi_slip(B74,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.63430315191371311</v>
+        <f>[1]!motor_CosPhi_slip(B74,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.634303151913713</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
@@ -10947,19 +10915,19 @@
         <v>0.2</v>
       </c>
       <c r="C75" s="9">
-        <f>[2]!motor_M_slip_Nm(B75,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B75,F,U,Unom,Inom,Fnom,0)</f>
         <v>151.5905243446586</v>
       </c>
       <c r="D75" s="9">
-        <f>[2]!motor_I_slip_A(B75,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B75,F,U,Unom,Inom,Fnom,0)</f>
         <v>88.348386583392369</v>
       </c>
       <c r="E75" s="9">
-        <f>[2]!motor_Eff_slip(B75,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B75,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.59883668234682952</v>
       </c>
       <c r="F75" s="9">
-        <f>[2]!motor_CosPhi_slip(B75,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B75,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.6236422476143606</v>
       </c>
     </row>
@@ -10968,19 +10936,19 @@
         <v>0.3</v>
       </c>
       <c r="C76" s="9">
-        <f>[2]!motor_M_slip_Nm(B76,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B76,F,U,Unom,Inom,Fnom,0)</f>
         <v>121.39425877897952</v>
       </c>
       <c r="D76" s="9">
-        <f>[2]!motor_I_slip_A(B76,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B76,F,U,Unom,Inom,Fnom,0)</f>
         <v>96.932414318470379</v>
       </c>
       <c r="E76" s="9">
-        <f>[2]!motor_Eff_slip(B76,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B76,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.50201047425271972</v>
       </c>
       <c r="F76" s="9">
-        <f>[2]!motor_CosPhi_slip(B76,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B76,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.54298374744525379</v>
       </c>
     </row>
@@ -10989,20 +10957,20 @@
         <v>0.4</v>
       </c>
       <c r="C77" s="9">
-        <f>[2]!motor_M_slip_Nm(B77,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B77,F,U,Unom,Inom,Fnom,0)</f>
         <v>98.693404211183037</v>
       </c>
       <c r="D77" s="9">
-        <f>[2]!motor_I_slip_A(B77,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B77,F,U,Unom,Inom,Fnom,0)</f>
         <v>101.28739291498862</v>
       </c>
       <c r="E77" s="9">
-        <f>[2]!motor_Eff_slip(B77,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.43021384795266587</v>
+        <f>[1]!motor_Eff_slip(B77,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.43021384795266604</v>
       </c>
       <c r="F77" s="9">
-        <f>[2]!motor_CosPhi_slip(B77,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.49296812876560941</v>
+        <f>[1]!motor_CosPhi_slip(B77,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.49296812876560925</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.25">
@@ -11010,19 +10978,19 @@
         <v>0.5</v>
       </c>
       <c r="C78" s="9">
-        <f>[2]!motor_M_slip_Nm(B78,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B78,F,U,Unom,Inom,Fnom,0)</f>
         <v>82.242410244955451</v>
       </c>
       <c r="D78" s="9">
-        <f>[2]!motor_I_slip_A(B78,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B78,F,U,Unom,Inom,Fnom,0)</f>
         <v>103.85439788171455</v>
       </c>
       <c r="E78" s="9">
-        <f>[2]!motor_Eff_slip(B78,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B78,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.37510554541135332</v>
       </c>
       <c r="F78" s="9">
-        <f>[2]!motor_CosPhi_slip(B78,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B78,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.45950256934074796</v>
       </c>
     </row>
@@ -11031,19 +10999,19 @@
         <v>0.6</v>
       </c>
       <c r="C79" s="9">
-        <f>[2]!motor_M_slip_Nm(B79,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B79,F,U,Unom,Inom,Fnom,0)</f>
         <v>70.033857316114492</v>
       </c>
       <c r="D79" s="9">
-        <f>[2]!motor_I_slip_A(B79,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B79,F,U,Unom,Inom,Fnom,0)</f>
         <v>105.52630723397222</v>
       </c>
       <c r="E79" s="9">
-        <f>[2]!motor_Eff_slip(B79,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B79,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.33153937066369921</v>
       </c>
       <c r="F79" s="9">
-        <f>[2]!motor_CosPhi_slip(B79,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B79,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.43569511319147636</v>
       </c>
     </row>
@@ -11052,19 +11020,19 @@
         <v>0.7</v>
       </c>
       <c r="C80" s="9">
-        <f>[2]!motor_M_slip_Nm(B80,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B80,F,U,Unom,Inom,Fnom,0)</f>
         <v>60.695549543055684</v>
       </c>
       <c r="D80" s="9">
-        <f>[2]!motor_I_slip_A(B80,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B80,F,U,Unom,Inom,Fnom,0)</f>
         <v>106.69394848523537</v>
       </c>
       <c r="E80" s="9">
-        <f>[2]!motor_Eff_slip(B80,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B80,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.29625607905792939</v>
       </c>
       <c r="F80" s="9">
-        <f>[2]!motor_CosPhi_slip(B80,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B80,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.41794610383771225</v>
       </c>
     </row>
@@ -11073,20 +11041,20 @@
         <v>0.8</v>
       </c>
       <c r="C81" s="9">
-        <f>[2]!motor_M_slip_Nm(B81,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B81,F,U,Unom,Inom,Fnom,0)</f>
         <v>53.353159750456562</v>
       </c>
       <c r="D81" s="9">
-        <f>[2]!motor_I_slip_A(B81,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B81,F,U,Unom,Inom,Fnom,0)</f>
         <v>107.55215596677904</v>
       </c>
       <c r="E81" s="9">
-        <f>[2]!motor_Eff_slip(B81,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.26710820429027687</v>
+        <f>[1]!motor_Eff_slip(B81,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.26710820429027682</v>
       </c>
       <c r="F81" s="9">
-        <f>[2]!motor_CosPhi_slip(B81,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.4042260408594463</v>
+        <f>[1]!motor_CosPhi_slip(B81,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.40422604085944636</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -11094,19 +11062,19 @@
         <v>0.9</v>
       </c>
       <c r="C82" s="9">
-        <f>[2]!motor_M_slip_Nm(B82,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B82,F,U,Unom,Inom,Fnom,0)</f>
         <v>47.442508108093918</v>
       </c>
       <c r="D82" s="9">
-        <f>[2]!motor_I_slip_A(B82,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_I_slip_A(B82,F,U,Unom,Inom,Fnom,0)</f>
         <v>108.20789723832284</v>
       </c>
       <c r="E82" s="9">
-        <f>[2]!motor_Eff_slip(B82,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B82,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.24262793328636234</v>
       </c>
       <c r="F82" s="9">
-        <f>[2]!motor_CosPhi_slip(B82,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_CosPhi_slip(B82,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.39331306714419811</v>
       </c>
     </row>
@@ -11115,20 +11083,20 @@
         <v>1</v>
       </c>
       <c r="C83" s="9">
-        <f>[2]!motor_M_slip_Nm(B83,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_M_slip_Nm(B83,F,U,Unom,Inom,Fnom,0)</f>
         <v>42.588868474732728</v>
       </c>
       <c r="D83" s="9">
-        <f>[2]!motor_I_slip_A(B83,F,U,Unom,Inom,Fnom,0)</f>
-        <v>108.72440135783683</v>
+        <f>[1]!motor_I_slip_A(B83,F,U,Unom,Inom,Fnom,0)</f>
+        <v>108.72440135783684</v>
       </c>
       <c r="E83" s="9">
-        <f>[2]!motor_Eff_slip(B83,F,U,Unom,Inom,Fnom,0)</f>
+        <f>[1]!motor_Eff_slip(B83,F,U,Unom,Inom,Fnom,0)</f>
         <v>0.22177952311141455</v>
       </c>
       <c r="F83" s="9">
-        <f>[2]!motor_CosPhi_slip(B83,F,U,Unom,Inom,Fnom,0)</f>
-        <v>0.38443075331109738</v>
+        <f>[1]!motor_CosPhi_slip(B83,F,U,Unom,Inom,Fnom,0)</f>
+        <v>0.38443075331109733</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -11192,15 +11160,15 @@
         <v>800</v>
       </c>
       <c r="C91" s="9">
-        <f>[2]!motor_Eff_d(C$90,F,$B91,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(C$90,F,$B91,Unom,Inom,Fnom,ID)</f>
         <v>0.79186525033863675</v>
       </c>
       <c r="D91" s="9">
-        <f>[2]!motor_Eff_d(D$90,F,$B91,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(D$90,F,$B91,Unom,Inom,Fnom,ID)</f>
         <v>0.78613328968537366</v>
       </c>
       <c r="E91" s="9">
-        <f>[2]!motor_Eff_d(E$90,F,$B91,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(E$90,F,$B91,Unom,Inom,Fnom,ID)</f>
         <v>0.76400104670987234</v>
       </c>
     </row>
@@ -11213,15 +11181,15 @@
         <v>850</v>
       </c>
       <c r="C92" s="9">
-        <f>[2]!motor_Eff_d(C$90,F,$B92,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(C$90,F,$B92,Unom,Inom,Fnom,ID)</f>
         <v>0.80559955930273786</v>
       </c>
       <c r="D92" s="9">
-        <f>[2]!motor_Eff_d(D$90,F,$B92,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(D$90,F,$B92,Unom,Inom,Fnom,ID)</f>
         <v>0.79976818209022016</v>
       </c>
       <c r="E92" s="9">
-        <f>[2]!motor_Eff_d(E$90,F,$B92,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(E$90,F,$B92,Unom,Inom,Fnom,ID)</f>
         <v>0.77725207195681023</v>
       </c>
     </row>
@@ -11234,15 +11202,15 @@
         <v>900</v>
       </c>
       <c r="C93" s="9">
-        <f>[2]!motor_Eff_d(C$90,F,$B93,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(C$90,F,$B93,Unom,Inom,Fnom,ID)</f>
         <v>0.81504701819177705</v>
       </c>
       <c r="D93" s="9">
-        <f>[2]!motor_Eff_d(D$90,F,$B93,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(D$90,F,$B93,Unom,Inom,Fnom,ID)</f>
         <v>0.80914725502268137</v>
       </c>
       <c r="E93" s="9">
-        <f>[2]!motor_Eff_d(E$90,F,$B93,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(E$90,F,$B93,Unom,Inom,Fnom,ID)</f>
         <v>0.78636709307547625</v>
       </c>
     </row>
@@ -11255,15 +11223,15 @@
         <v>950</v>
       </c>
       <c r="C94" s="9">
-        <f>[2]!motor_Eff_d(C$90,F,$B94,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(C$90,F,$B94,Unom,Inom,Fnom,ID)</f>
         <v>0.82020762700575456</v>
       </c>
       <c r="D94" s="9">
-        <f>[2]!motor_Eff_d(D$90,F,$B94,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(D$90,F,$B94,Unom,Inom,Fnom,ID)</f>
         <v>0.81427050848275739</v>
       </c>
       <c r="E94" s="9">
-        <f>[2]!motor_Eff_d(E$90,F,$B94,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(E$90,F,$B94,Unom,Inom,Fnom,ID)</f>
         <v>0.79134611006587063</v>
       </c>
     </row>
@@ -11276,15 +11244,15 @@
         <v>1000</v>
       </c>
       <c r="C95" s="9">
-        <f>[2]!motor_Eff_d(C$90,F,$B95,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(C$90,F,$B95,Unom,Inom,Fnom,ID)</f>
         <v>0.82107835186016009</v>
       </c>
       <c r="D95" s="9">
-        <f>[2]!motor_Eff_d(D$90,F,$B95,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(D$90,F,$B95,Unom,Inom,Fnom,ID)</f>
         <v>0.81513493054688002</v>
       </c>
       <c r="E95" s="9">
-        <f>[2]!motor_Eff_d(E$90,F,$B95,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(E$90,F,$B95,Unom,Inom,Fnom,ID)</f>
         <v>0.79218619579999983</v>
       </c>
     </row>
@@ -11297,15 +11265,15 @@
         <v>1050</v>
       </c>
       <c r="C96" s="9">
-        <f>[2]!motor_Eff_d(C$90,F,$B96,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(C$90,F,$B96,Unom,Inom,Fnom,ID)</f>
         <v>0.81766829440852362</v>
       </c>
       <c r="D96" s="9">
-        <f>[2]!motor_Eff_d(D$90,F,$B96,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(D$90,F,$B96,Unom,Inom,Fnom,ID)</f>
         <v>0.8117495569857538</v>
       </c>
       <c r="E96" s="9">
-        <f>[2]!motor_Eff_d(E$90,F,$B96,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(E$90,F,$B96,Unom,Inom,Fnom,ID)</f>
         <v>0.78889613166184391</v>
       </c>
     </row>
@@ -11318,15 +11286,15 @@
         <v>1100</v>
       </c>
       <c r="C97" s="9">
-        <f>[2]!motor_Eff_d(C$90,F,$B97,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(C$90,F,$B97,Unom,Inom,Fnom,ID)</f>
         <v>0.80996835299731518</v>
       </c>
       <c r="D97" s="9">
-        <f>[2]!motor_Eff_d(D$90,F,$B97,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(D$90,F,$B97,Unom,Inom,Fnom,ID)</f>
         <v>0.80410535202867384</v>
       </c>
       <c r="E97" s="9">
-        <f>[2]!motor_Eff_d(E$90,F,$B97,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(E$90,F,$B97,Unom,Inom,Fnom,ID)</f>
         <v>0.7814671362674227</v>
       </c>
     </row>
@@ -11339,15 +11307,15 @@
         <v>1150</v>
       </c>
       <c r="C98" s="9">
-        <f>[2]!motor_Eff_d(C$90,F,$B98,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(C$90,F,$B98,Unom,Inom,Fnom,ID)</f>
         <v>0.79798156151104527</v>
       </c>
       <c r="D98" s="9">
-        <f>[2]!motor_Eff_d(D$90,F,$B98,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(D$90,F,$B98,Unom,Inom,Fnom,ID)</f>
         <v>0.79220532759920903</v>
       </c>
       <c r="E98" s="9">
-        <f>[2]!motor_Eff_d(E$90,F,$B98,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(E$90,F,$B98,Unom,Inom,Fnom,ID)</f>
         <v>0.76990213674472996</v>
       </c>
     </row>
@@ -11360,15 +11328,15 @@
         <v>1200</v>
       </c>
       <c r="C99" s="9">
-        <f>[2]!motor_Eff_d(C$90,F,$B99,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(C$90,F,$B99,Unom,Inom,Fnom,ID)</f>
         <v>0.781707919949713</v>
       </c>
       <c r="D99" s="9">
-        <f>[2]!motor_Eff_d(D$90,F,$B99,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(D$90,F,$B99,Unom,Inom,Fnom,ID)</f>
         <v>0.7760494836973586</v>
       </c>
       <c r="E99" s="9">
-        <f>[2]!motor_Eff_d(E$90,F,$B99,Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Eff_d(E$90,F,$B99,Unom,Inom,Fnom,ID)</f>
         <v>0.75420113309376513</v>
       </c>
     </row>

--- a/excercises/excercises/80.Motor.xlsx
+++ b/excercises/excercises/80.Motor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\excercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\excercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387AA0D5-F97D-4D8B-8F37-C2BD63F46ACA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA69598B-C611-4652-8163-B1066B0CE82E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12945" yWindow="2910" windowWidth="21930" windowHeight="17160" xr2:uid="{D87573BE-CE25-4BB0-B737-F86120CA6188}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{D87573BE-CE25-4BB0-B737-F86120CA6188}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -9268,7 +9268,7 @@
       <definedName name="motor_I_slip_A"/>
       <definedName name="motor_M_Nm"/>
       <definedName name="motor_M_slip_Nm"/>
-      <definedName name="Motor_Pnom_kW"/>
+      <definedName name="motor_Pnom_kW"/>
       <definedName name="motor_S_d"/>
     </definedNames>
     <sheetDataSet>
@@ -9580,7 +9580,7 @@
   <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9681,7 +9681,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="10">
-        <f>[1]!Motor_Pnom_kW(Unom,Inom,Fnom,ID)</f>
+        <f>[1]!motor_Pnom_kW(Unom,Inom,Fnom,ID)</f>
         <v>40.141580479753998</v>
       </c>
       <c r="D10" s="6" t="s">
